--- a/graphics/prov_zeitplanung.xlsx
+++ b/graphics/prov_zeitplanung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anders\Documents\Studium\Semester_5\Projekt_5\Pflichtenheft\graphics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Studium\Projekt\Pflichtenheft\graphics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EB142B97-5CF1-45F6-AE5C-31C5F38DC2F6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{16051AE1-7704-489D-8237-810A31095828}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{D4F38930-CA9C-4F92-8E7C-C9561E771B9C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12230" xr2:uid="{D4F38930-CA9C-4F92-8E7C-C9561E771B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,8 +223,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3FAFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6E50"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="72">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -324,34 +336,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
@@ -437,26 +421,6 @@
       <left style="medium">
         <color theme="1"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -480,19 +444,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,21 +631,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
@@ -726,19 +662,6 @@
       <left/>
       <right style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color rgb="FFFF0000"/>
       </right>
       <top/>
       <bottom style="double">
@@ -928,19 +851,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1002,19 +912,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
@@ -1063,21 +960,6 @@
       <left/>
       <right style="thin">
         <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color rgb="FFFF0000"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
@@ -1134,6 +1016,204 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1144,7 +1224,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1152,139 +1232,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1294,357 +1347,498 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="45" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="46" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="24" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="23" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="25" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="35" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="36" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="37" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="55" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="52" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="53" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="29" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="30" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="25" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="27" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="42" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="43" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="44" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1659,6 +1853,12 @@
   <colors>
     <mruColors>
       <color rgb="FFCC00FF"/>
+      <color rgb="FFFF6E50"/>
+      <color rgb="FFFF4500"/>
+      <color rgb="FFFF6464"/>
+      <color rgb="FFD60000"/>
+      <color rgb="FFB3FAFF"/>
+      <color rgb="FFFDB08D"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2371,1462 +2571,1471 @@
   <dimension ref="A1:BD21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD34" sqref="AD34"/>
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="28" width="6.5703125" customWidth="1"/>
-    <col min="29" max="29" width="6.5703125" style="48" customWidth="1"/>
-    <col min="30" max="32" width="7.7109375" customWidth="1"/>
-    <col min="33" max="55" width="6.5703125" customWidth="1"/>
+    <col min="1" max="3" width="7.7265625" customWidth="1"/>
+    <col min="4" max="28" width="6.54296875" customWidth="1"/>
+    <col min="29" max="29" width="6.54296875" style="39" customWidth="1"/>
+    <col min="30" max="32" width="7.7265625" customWidth="1"/>
+    <col min="33" max="55" width="6.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="55" t="s">
+    <row r="1" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="132"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="57" t="s">
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="192"/>
+      <c r="P1" s="192"/>
+      <c r="Q1" s="192"/>
+      <c r="R1" s="192"/>
+      <c r="S1" s="192"/>
+      <c r="T1" s="192"/>
+      <c r="U1" s="201"/>
+      <c r="V1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="59"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="94"/>
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="95"/>
       <c r="AC1" s="1"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="60" t="s">
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="58"/>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="59"/>
+      <c r="AH1" s="94"/>
+      <c r="AI1" s="94"/>
+      <c r="AJ1" s="94"/>
+      <c r="AK1" s="94"/>
+      <c r="AL1" s="94"/>
+      <c r="AM1" s="94"/>
+      <c r="AN1" s="94"/>
+      <c r="AO1" s="94"/>
+      <c r="AP1" s="94"/>
+      <c r="AQ1" s="94"/>
+      <c r="AR1" s="94"/>
+      <c r="AS1" s="94"/>
+      <c r="AT1" s="94"/>
+      <c r="AU1" s="94"/>
+      <c r="AV1" s="94"/>
+      <c r="AW1" s="94"/>
+      <c r="AX1" s="94"/>
+      <c r="AY1" s="94"/>
+      <c r="AZ1" s="94"/>
+      <c r="BA1" s="94"/>
+      <c r="BB1" s="94"/>
+      <c r="BC1" s="95"/>
       <c r="BD1" s="2"/>
     </row>
-    <row r="2" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="61" t="s">
+      <c r="B2" s="134"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64" t="s">
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="52" t="s">
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="64" t="s">
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="65"/>
-      <c r="AL2" s="65"/>
-      <c r="AM2" s="65"/>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="65"/>
-      <c r="AR2" s="65"/>
-      <c r="AS2" s="65"/>
-      <c r="AT2" s="65"/>
-      <c r="AU2" s="65"/>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="67" t="s">
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="101"/>
+      <c r="AR2" s="101"/>
+      <c r="AS2" s="101"/>
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="101"/>
+      <c r="AV2" s="101"/>
+      <c r="AW2" s="102"/>
+      <c r="AX2" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
-      <c r="BA2" s="67"/>
-      <c r="BB2" s="67"/>
-      <c r="BC2" s="68"/>
-      <c r="BD2" s="21"/>
+      <c r="AY2" s="103"/>
+      <c r="AZ2" s="103"/>
+      <c r="BA2" s="103"/>
+      <c r="BB2" s="103"/>
+      <c r="BC2" s="104"/>
+      <c r="BD2" s="17"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A3" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="23"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="19"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="15"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="13"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="15"/>
+      <c r="P3" s="13"/>
       <c r="Q3" s="4"/>
-      <c r="R3" s="15"/>
+      <c r="R3" s="13"/>
       <c r="S3" s="4"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="15"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="202"/>
+      <c r="V3" s="168"/>
+      <c r="W3" s="167"/>
+      <c r="X3" s="167"/>
+      <c r="Y3" s="167"/>
+      <c r="Z3" s="13"/>
       <c r="AA3" s="4"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="71" t="str">
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="136" t="str">
         <f>IF(A3&lt;&gt;0,A3," ")</f>
         <v>Pflichtenheft</v>
       </c>
-      <c r="AE3" s="72"/>
-      <c r="AF3" s="73"/>
+      <c r="AE3" s="137"/>
+      <c r="AF3" s="138"/>
       <c r="AG3" s="3"/>
-      <c r="AH3" s="15"/>
+      <c r="AH3" s="13"/>
       <c r="AI3" s="4"/>
-      <c r="AJ3" s="15"/>
+      <c r="AJ3" s="13"/>
       <c r="AK3" s="4"/>
-      <c r="AL3" s="15"/>
+      <c r="AL3" s="13"/>
       <c r="AM3" s="4"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="15"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="154"/>
+      <c r="AP3" s="13"/>
       <c r="AQ3" s="4"/>
-      <c r="AR3" s="15"/>
+      <c r="AR3" s="13"/>
       <c r="AS3" s="4"/>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="19"/>
+      <c r="AT3" s="195"/>
+      <c r="AU3" s="168"/>
+      <c r="AV3" s="167"/>
+      <c r="AW3" s="185"/>
+      <c r="AX3" s="168"/>
       <c r="AY3" s="4"/>
-      <c r="AZ3" s="15"/>
+      <c r="AZ3" s="13"/>
       <c r="BA3" s="4"/>
-      <c r="BB3" s="15"/>
+      <c r="BB3" s="13"/>
       <c r="BC3" s="5"/>
-      <c r="BD3" s="21"/>
+      <c r="BD3" s="17"/>
     </row>
-    <row r="4" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="74" t="s">
+    <row r="4" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="74" t="str">
+      <c r="B4" s="140"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="203"/>
+      <c r="V4" s="169"/>
+      <c r="W4" s="170"/>
+      <c r="X4" s="170"/>
+      <c r="Y4" s="170"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="139" t="str">
         <f t="shared" ref="AD4:AD8" si="0">IF(A4&lt;&gt;0,A4," ")</f>
         <v xml:space="preserve">   • Disposition</v>
       </c>
-      <c r="AE4" s="75"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="34"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="34"/>
-      <c r="AS4" s="35"/>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="34"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="37"/>
-      <c r="AY4" s="35"/>
-      <c r="AZ4" s="34"/>
-      <c r="BA4" s="35"/>
-      <c r="BB4" s="34"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="21"/>
+      <c r="AE4" s="140"/>
+      <c r="AF4" s="141"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="30"/>
+      <c r="AO4" s="155"/>
+      <c r="AP4" s="30"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="30"/>
+      <c r="AS4" s="31"/>
+      <c r="AT4" s="196"/>
+      <c r="AU4" s="169"/>
+      <c r="AV4" s="170"/>
+      <c r="AW4" s="186"/>
+      <c r="AX4" s="169"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="30"/>
+      <c r="BA4" s="31"/>
+      <c r="BB4" s="30"/>
+      <c r="BC4" s="33"/>
+      <c r="BD4" s="17"/>
     </row>
-    <row r="5" spans="1:56" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+    <row r="5" spans="1:56" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="15"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="94"/>
-      <c r="AA5" s="94"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="77" t="str">
+      <c r="H5" s="22"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="142" t="str">
         <f t="shared" si="0"/>
         <v>Fachbericht</v>
       </c>
-      <c r="AE5" s="78"/>
-      <c r="AF5" s="79"/>
-      <c r="AG5" s="97"/>
-      <c r="AH5" s="94"/>
-      <c r="AI5" s="94"/>
-      <c r="AJ5" s="94"/>
-      <c r="AK5" s="94"/>
-      <c r="AL5" s="94"/>
-      <c r="AM5" s="94"/>
-      <c r="AN5" s="94"/>
-      <c r="AO5" s="94"/>
-      <c r="AP5" s="94"/>
-      <c r="AQ5" s="94"/>
-      <c r="AR5" s="94"/>
-      <c r="AS5" s="94"/>
-      <c r="AT5" s="94"/>
-      <c r="AU5" s="94"/>
-      <c r="AV5" s="94"/>
-      <c r="AW5" s="94"/>
-      <c r="AX5" s="94"/>
-      <c r="AY5" s="94"/>
-      <c r="AZ5" s="94"/>
-      <c r="BA5" s="94"/>
-      <c r="BB5" s="94"/>
-      <c r="BC5" s="95"/>
-      <c r="BD5" s="21"/>
+      <c r="AE5" s="143"/>
+      <c r="AF5" s="144"/>
+      <c r="AG5" s="84"/>
+      <c r="AH5" s="82"/>
+      <c r="AI5" s="82"/>
+      <c r="AJ5" s="82"/>
+      <c r="AK5" s="82"/>
+      <c r="AL5" s="82"/>
+      <c r="AM5" s="82"/>
+      <c r="AN5" s="82"/>
+      <c r="AO5" s="82"/>
+      <c r="AP5" s="82"/>
+      <c r="AQ5" s="82"/>
+      <c r="AR5" s="82"/>
+      <c r="AS5" s="82"/>
+      <c r="AT5" s="82"/>
+      <c r="AU5" s="82"/>
+      <c r="AV5" s="82"/>
+      <c r="AW5" s="82"/>
+      <c r="AX5" s="82"/>
+      <c r="AY5" s="82"/>
+      <c r="AZ5" s="82"/>
+      <c r="BA5" s="82"/>
+      <c r="BB5" s="82"/>
+      <c r="BC5" s="83"/>
+      <c r="BD5" s="17"/>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A6" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="23"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="19"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="15"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="154"/>
+      <c r="N6" s="13"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="15"/>
+      <c r="P6" s="13"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="15"/>
+      <c r="R6" s="13"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="15"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="202"/>
+      <c r="V6" s="168"/>
+      <c r="W6" s="167"/>
+      <c r="X6" s="167"/>
+      <c r="Y6" s="167"/>
+      <c r="Z6" s="13"/>
       <c r="AA6" s="4"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="87" t="str">
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="88" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">   • Disposition</v>
       </c>
-      <c r="AE6" s="88"/>
-      <c r="AF6" s="89"/>
+      <c r="AE6" s="89"/>
+      <c r="AF6" s="90"/>
       <c r="AG6" s="3"/>
-      <c r="AH6" s="15"/>
+      <c r="AH6" s="13"/>
       <c r="AI6" s="4"/>
-      <c r="AJ6" s="15"/>
+      <c r="AJ6" s="13"/>
       <c r="AK6" s="4"/>
-      <c r="AL6" s="15"/>
+      <c r="AL6" s="13"/>
       <c r="AM6" s="4"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="15"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="154"/>
+      <c r="AP6" s="13"/>
       <c r="AQ6" s="4"/>
-      <c r="AR6" s="15"/>
+      <c r="AR6" s="13"/>
       <c r="AS6" s="4"/>
-      <c r="AT6" s="15"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="15"/>
-      <c r="AW6" s="5"/>
-      <c r="AX6" s="19"/>
+      <c r="AT6" s="197"/>
+      <c r="AU6" s="168"/>
+      <c r="AV6" s="167"/>
+      <c r="AW6" s="185"/>
+      <c r="AX6" s="168"/>
       <c r="AY6" s="4"/>
-      <c r="AZ6" s="15"/>
-      <c r="BA6" s="25"/>
-      <c r="BB6" s="27"/>
-      <c r="BC6" s="28"/>
-      <c r="BD6" s="21"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="21"/>
+      <c r="BB6" s="23"/>
+      <c r="BC6" s="24"/>
+      <c r="BD6" s="17"/>
     </row>
-    <row r="7" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="90" t="s">
+    <row r="7" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="80" t="str">
+      <c r="B7" s="152"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="156"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="204"/>
+      <c r="V7" s="171"/>
+      <c r="W7" s="172"/>
+      <c r="X7" s="172"/>
+      <c r="Y7" s="172"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="145" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">   • Korrektur</v>
       </c>
-      <c r="AE7" s="81"/>
-      <c r="AF7" s="82"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="30"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="30"/>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="30"/>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="30"/>
-      <c r="AP7" s="31"/>
-      <c r="AQ7" s="30"/>
-      <c r="AR7" s="31"/>
-      <c r="AS7" s="30"/>
-      <c r="AT7" s="31"/>
-      <c r="AU7" s="30"/>
-      <c r="AV7" s="31"/>
-      <c r="AW7" s="46"/>
-      <c r="AX7" s="44"/>
-      <c r="AY7" s="30"/>
-      <c r="AZ7" s="47"/>
-      <c r="BA7" s="98"/>
-      <c r="BB7" s="99"/>
-      <c r="BC7" s="100"/>
-      <c r="BD7" s="21"/>
+      <c r="AE7" s="146"/>
+      <c r="AF7" s="147"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="26"/>
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="26"/>
+      <c r="AN7" s="27"/>
+      <c r="AO7" s="156"/>
+      <c r="AP7" s="27"/>
+      <c r="AQ7" s="26"/>
+      <c r="AR7" s="27"/>
+      <c r="AS7" s="26"/>
+      <c r="AT7" s="198"/>
+      <c r="AU7" s="171"/>
+      <c r="AV7" s="172"/>
+      <c r="AW7" s="187"/>
+      <c r="AX7" s="171"/>
+      <c r="AY7" s="26"/>
+      <c r="AZ7" s="38"/>
+      <c r="BA7" s="85"/>
+      <c r="BB7" s="86"/>
+      <c r="BC7" s="87"/>
+      <c r="BD7" s="17"/>
     </row>
-    <row r="8" spans="1:56" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="110" t="s">
+    <row r="8" spans="1:56" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="17"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="15"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="154"/>
+      <c r="N8" s="13"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="15"/>
+      <c r="P8" s="13"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="15"/>
+      <c r="R8" s="13"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="15"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="202"/>
+      <c r="V8" s="168"/>
+      <c r="W8" s="167"/>
+      <c r="X8" s="167"/>
+      <c r="Y8" s="167"/>
+      <c r="Z8" s="13"/>
       <c r="AA8" s="4"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="110" t="str">
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="126" t="str">
         <f t="shared" si="0"/>
         <v>Hardware</v>
       </c>
-      <c r="AE8" s="111"/>
-      <c r="AF8" s="112"/>
+      <c r="AE8" s="127"/>
+      <c r="AF8" s="128"/>
       <c r="AG8" s="3"/>
-      <c r="AH8" s="15"/>
+      <c r="AH8" s="13"/>
       <c r="AI8" s="4"/>
-      <c r="AJ8" s="15"/>
+      <c r="AJ8" s="13"/>
       <c r="AK8" s="4"/>
-      <c r="AL8" s="15"/>
+      <c r="AL8" s="13"/>
       <c r="AM8" s="4"/>
-      <c r="AN8" s="15"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="15"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="154"/>
+      <c r="AP8" s="13"/>
       <c r="AQ8" s="4"/>
-      <c r="AR8" s="15"/>
+      <c r="AR8" s="13"/>
       <c r="AS8" s="4"/>
-      <c r="AT8" s="15"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="15"/>
-      <c r="AW8" s="5"/>
-      <c r="AX8" s="19"/>
+      <c r="AT8" s="199"/>
+      <c r="AU8" s="168"/>
+      <c r="AV8" s="167"/>
+      <c r="AW8" s="185"/>
+      <c r="AX8" s="168"/>
       <c r="AY8" s="4"/>
-      <c r="AZ8" s="15"/>
+      <c r="AZ8" s="13"/>
       <c r="BA8" s="4"/>
-      <c r="BB8" s="15"/>
+      <c r="BB8" s="13"/>
       <c r="BC8" s="5"/>
-      <c r="BD8" s="21"/>
+      <c r="BD8" s="17"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A9" s="113" t="s">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A9" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="119"/>
-      <c r="W9" s="120"/>
-      <c r="X9" s="120"/>
-      <c r="Y9" s="120"/>
-      <c r="Z9" s="120"/>
-      <c r="AA9" s="121"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="113" t="str">
+      <c r="B9" s="130"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="157"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="205"/>
+      <c r="V9" s="174"/>
+      <c r="W9" s="173"/>
+      <c r="X9" s="174"/>
+      <c r="Y9" s="173"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="162"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="129" t="str">
         <f t="shared" ref="AD9:AD20" si="1">IF(A9&lt;&gt;0,A9," ")</f>
         <v xml:space="preserve">   • Speisung</v>
       </c>
-      <c r="AE9" s="114"/>
-      <c r="AF9" s="115"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="16"/>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="16"/>
-      <c r="AO9" s="9"/>
-      <c r="AP9" s="16"/>
-      <c r="AQ9" s="9"/>
-      <c r="AR9" s="16"/>
-      <c r="AS9" s="9"/>
-      <c r="AT9" s="16"/>
-      <c r="AU9" s="9"/>
-      <c r="AV9" s="16"/>
-      <c r="AW9" s="10"/>
-      <c r="AX9" s="20"/>
-      <c r="AY9" s="9"/>
-      <c r="AZ9" s="16"/>
-      <c r="BA9" s="9"/>
-      <c r="BB9" s="16"/>
-      <c r="BC9" s="10"/>
-      <c r="BD9" s="21"/>
+      <c r="AE9" s="130"/>
+      <c r="AF9" s="131"/>
+      <c r="AG9" s="163"/>
+      <c r="AH9" s="76"/>
+      <c r="AI9" s="76"/>
+      <c r="AJ9" s="77"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="157"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="194"/>
+      <c r="AU9" s="176"/>
+      <c r="AV9" s="175"/>
+      <c r="AW9" s="188"/>
+      <c r="AX9" s="176"/>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="14"/>
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="17"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A10" s="113" t="s">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A10" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="119"/>
-      <c r="W10" s="120"/>
-      <c r="X10" s="121"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="113" t="str">
+      <c r="B10" s="130"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="157"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="205"/>
+      <c r="V10" s="174"/>
+      <c r="W10" s="173"/>
+      <c r="X10" s="174"/>
+      <c r="Y10" s="175"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="162"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="129" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">         ○ Akku</v>
       </c>
-      <c r="AE10" s="114"/>
-      <c r="AF10" s="115"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="9"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="9"/>
-      <c r="AR10" s="16"/>
-      <c r="AS10" s="9"/>
-      <c r="AT10" s="16"/>
-      <c r="AU10" s="9"/>
-      <c r="AV10" s="16"/>
-      <c r="AW10" s="10"/>
-      <c r="AX10" s="20"/>
-      <c r="AY10" s="9"/>
-      <c r="AZ10" s="16"/>
-      <c r="BA10" s="9"/>
-      <c r="BB10" s="16"/>
-      <c r="BC10" s="10"/>
-      <c r="BD10" s="21"/>
+      <c r="AE10" s="130"/>
+      <c r="AF10" s="131"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="157"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="194"/>
+      <c r="AU10" s="176"/>
+      <c r="AV10" s="175"/>
+      <c r="AW10" s="188"/>
+      <c r="AX10" s="176"/>
+      <c r="AY10" s="8"/>
+      <c r="AZ10" s="14"/>
+      <c r="BA10" s="8"/>
+      <c r="BB10" s="14"/>
+      <c r="BC10" s="9"/>
+      <c r="BD10" s="17"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A11" s="113" t="s">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A11" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="155"/>
-      <c r="Y11" s="120"/>
-      <c r="Z11" s="120"/>
-      <c r="AA11" s="121"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="113" t="str">
+      <c r="B11" s="130"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="157"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="205"/>
+      <c r="V11" s="176"/>
+      <c r="W11" s="175"/>
+      <c r="X11" s="177"/>
+      <c r="Y11" s="173"/>
+      <c r="Z11" s="165"/>
+      <c r="AA11" s="166"/>
+      <c r="AB11" s="164"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="129" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">         ○ Photovoltaik</v>
       </c>
-      <c r="AE11" s="114"/>
-      <c r="AF11" s="115"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="16"/>
-      <c r="AK11" s="9"/>
-      <c r="AL11" s="16"/>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="16"/>
-      <c r="AO11" s="9"/>
-      <c r="AP11" s="16"/>
-      <c r="AQ11" s="9"/>
-      <c r="AR11" s="16"/>
-      <c r="AS11" s="9"/>
-      <c r="AT11" s="16"/>
-      <c r="AU11" s="9"/>
-      <c r="AV11" s="16"/>
-      <c r="AW11" s="10"/>
-      <c r="AX11" s="20"/>
-      <c r="AY11" s="9"/>
-      <c r="AZ11" s="16"/>
-      <c r="BA11" s="9"/>
-      <c r="BB11" s="16"/>
-      <c r="BC11" s="10"/>
-      <c r="BD11" s="21"/>
+      <c r="AE11" s="130"/>
+      <c r="AF11" s="131"/>
+      <c r="AG11" s="163"/>
+      <c r="AH11" s="76"/>
+      <c r="AI11" s="77"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="157"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="14"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="194"/>
+      <c r="AU11" s="176"/>
+      <c r="AV11" s="175"/>
+      <c r="AW11" s="188"/>
+      <c r="AX11" s="176"/>
+      <c r="AY11" s="8"/>
+      <c r="AZ11" s="14"/>
+      <c r="BA11" s="8"/>
+      <c r="BB11" s="14"/>
+      <c r="BC11" s="9"/>
+      <c r="BD11" s="17"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A12" s="113" t="s">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A12" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="120"/>
-      <c r="Q12" s="121"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="113" t="str">
+      <c r="B12" s="130"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="205"/>
+      <c r="V12" s="176"/>
+      <c r="W12" s="175"/>
+      <c r="X12" s="175"/>
+      <c r="Y12" s="175"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="129" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   • Sensoren</v>
       </c>
-      <c r="AE12" s="114"/>
-      <c r="AF12" s="115"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="9"/>
-      <c r="AL12" s="16"/>
-      <c r="AM12" s="9"/>
-      <c r="AN12" s="16"/>
-      <c r="AO12" s="9"/>
-      <c r="AP12" s="16"/>
-      <c r="AQ12" s="9"/>
-      <c r="AR12" s="16"/>
-      <c r="AS12" s="9"/>
-      <c r="AT12" s="16"/>
-      <c r="AU12" s="9"/>
-      <c r="AV12" s="16"/>
-      <c r="AW12" s="10"/>
-      <c r="AX12" s="20"/>
-      <c r="AY12" s="9"/>
-      <c r="AZ12" s="16"/>
-      <c r="BA12" s="9"/>
-      <c r="BB12" s="16"/>
-      <c r="BC12" s="10"/>
-      <c r="BD12" s="21"/>
+      <c r="AE12" s="130"/>
+      <c r="AF12" s="131"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="157"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="14"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="194"/>
+      <c r="AU12" s="176"/>
+      <c r="AV12" s="175"/>
+      <c r="AW12" s="188"/>
+      <c r="AX12" s="176"/>
+      <c r="AY12" s="8"/>
+      <c r="AZ12" s="14"/>
+      <c r="BA12" s="8"/>
+      <c r="BB12" s="14"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="17"/>
     </row>
-    <row r="13" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="116" t="s">
+    <row r="13" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="157"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="116" t="str">
+      <c r="B13" s="115"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="203"/>
+      <c r="V13" s="169"/>
+      <c r="W13" s="170"/>
+      <c r="X13" s="170"/>
+      <c r="Y13" s="170"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="114" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   • Datenspeicherung</v>
       </c>
-      <c r="AE13" s="117"/>
-      <c r="AF13" s="118"/>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="34"/>
-      <c r="AI13" s="35"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="35"/>
-      <c r="AL13" s="34"/>
-      <c r="AM13" s="35"/>
-      <c r="AN13" s="34"/>
-      <c r="AO13" s="35"/>
-      <c r="AP13" s="34"/>
-      <c r="AQ13" s="35"/>
-      <c r="AR13" s="34"/>
-      <c r="AS13" s="35"/>
-      <c r="AT13" s="34"/>
-      <c r="AU13" s="35"/>
-      <c r="AV13" s="34"/>
-      <c r="AW13" s="39"/>
-      <c r="AX13" s="37"/>
-      <c r="AY13" s="35"/>
-      <c r="AZ13" s="34"/>
-      <c r="BA13" s="35"/>
-      <c r="BB13" s="34"/>
-      <c r="BC13" s="39"/>
-      <c r="BD13" s="21"/>
+      <c r="AE13" s="115"/>
+      <c r="AF13" s="116"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="31"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="30"/>
+      <c r="AO13" s="155"/>
+      <c r="AP13" s="30"/>
+      <c r="AQ13" s="31"/>
+      <c r="AR13" s="30"/>
+      <c r="AS13" s="31"/>
+      <c r="AT13" s="196"/>
+      <c r="AU13" s="169"/>
+      <c r="AV13" s="170"/>
+      <c r="AW13" s="186"/>
+      <c r="AX13" s="169"/>
+      <c r="AY13" s="31"/>
+      <c r="AZ13" s="30"/>
+      <c r="BA13" s="31"/>
+      <c r="BB13" s="30"/>
+      <c r="BC13" s="33"/>
+      <c r="BD13" s="17"/>
     </row>
-    <row r="14" spans="1:56" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="101" t="s">
+    <row r="14" spans="1:56" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="13"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="15"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="15"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="17"/>
+      <c r="J14" s="15"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="15"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="154"/>
+      <c r="N14" s="13"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="15"/>
+      <c r="P14" s="13"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="15"/>
+      <c r="R14" s="13"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="15"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="202"/>
+      <c r="V14" s="168"/>
+      <c r="W14" s="167"/>
+      <c r="X14" s="167"/>
+      <c r="Y14" s="167"/>
+      <c r="Z14" s="13"/>
       <c r="AA14" s="4"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="101" t="str">
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="117" t="str">
         <f t="shared" si="1"/>
         <v>Software</v>
       </c>
-      <c r="AE14" s="102"/>
-      <c r="AF14" s="103"/>
+      <c r="AE14" s="118"/>
+      <c r="AF14" s="119"/>
       <c r="AG14" s="3"/>
-      <c r="AH14" s="15"/>
+      <c r="AH14" s="13"/>
       <c r="AI14" s="4"/>
-      <c r="AJ14" s="15"/>
+      <c r="AJ14" s="13"/>
       <c r="AK14" s="4"/>
-      <c r="AL14" s="15"/>
+      <c r="AL14" s="13"/>
       <c r="AM14" s="4"/>
-      <c r="AN14" s="15"/>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="15"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="154"/>
+      <c r="AP14" s="13"/>
       <c r="AQ14" s="4"/>
-      <c r="AR14" s="15"/>
+      <c r="AR14" s="13"/>
       <c r="AS14" s="4"/>
-      <c r="AT14" s="15"/>
-      <c r="AU14" s="4"/>
-      <c r="AV14" s="15"/>
-      <c r="AW14" s="5"/>
-      <c r="AX14" s="19"/>
+      <c r="AT14" s="199"/>
+      <c r="AU14" s="168"/>
+      <c r="AV14" s="167"/>
+      <c r="AW14" s="185"/>
+      <c r="AX14" s="168"/>
       <c r="AY14" s="4"/>
-      <c r="AZ14" s="15"/>
+      <c r="AZ14" s="13"/>
       <c r="BA14" s="4"/>
-      <c r="BB14" s="15"/>
+      <c r="BB14" s="13"/>
       <c r="BC14" s="5"/>
-      <c r="BD14" s="21"/>
+      <c r="BD14" s="17"/>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A15" s="104" t="s">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A15" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="167"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="104" t="str">
+      <c r="B15" s="121"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="157"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="205"/>
+      <c r="V15" s="176"/>
+      <c r="W15" s="167"/>
+      <c r="X15" s="175"/>
+      <c r="Y15" s="175"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="120" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   • Datenübertragung</v>
       </c>
-      <c r="AE15" s="105"/>
-      <c r="AF15" s="106"/>
-      <c r="AG15" s="168"/>
-      <c r="AH15" s="169"/>
-      <c r="AI15" s="169"/>
-      <c r="AJ15" s="169"/>
-      <c r="AK15" s="159"/>
-      <c r="AL15" s="16"/>
-      <c r="AM15" s="9"/>
-      <c r="AN15" s="16"/>
-      <c r="AO15" s="9"/>
-      <c r="AP15" s="16"/>
-      <c r="AQ15" s="9"/>
-      <c r="AR15" s="16"/>
-      <c r="AS15" s="9"/>
-      <c r="AT15" s="16"/>
-      <c r="AU15" s="9"/>
-      <c r="AV15" s="16"/>
-      <c r="AW15" s="10"/>
-      <c r="AX15" s="20"/>
-      <c r="AY15" s="9"/>
-      <c r="AZ15" s="16"/>
-      <c r="BA15" s="9"/>
-      <c r="BB15" s="16"/>
-      <c r="BC15" s="10"/>
-      <c r="BD15" s="21"/>
+      <c r="AE15" s="121"/>
+      <c r="AF15" s="122"/>
+      <c r="AG15" s="71"/>
+      <c r="AH15" s="72"/>
+      <c r="AI15" s="72"/>
+      <c r="AJ15" s="72"/>
+      <c r="AK15" s="63"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="157"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="8"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="8"/>
+      <c r="AT15" s="194"/>
+      <c r="AU15" s="176"/>
+      <c r="AV15" s="175"/>
+      <c r="AW15" s="188"/>
+      <c r="AX15" s="176"/>
+      <c r="AY15" s="8"/>
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="8"/>
+      <c r="BB15" s="14"/>
+      <c r="BC15" s="9"/>
+      <c r="BD15" s="17"/>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A16" s="104" t="s">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A16" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="159"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="49"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="104" t="str">
+      <c r="B16" s="121"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="205"/>
+      <c r="V16" s="176"/>
+      <c r="W16" s="167"/>
+      <c r="X16" s="175"/>
+      <c r="Y16" s="175"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="120" t="str">
         <f>IF(A16&lt;&gt;0,A16," ")</f>
         <v xml:space="preserve">   • Datenspeicherung</v>
       </c>
-      <c r="AE16" s="105"/>
-      <c r="AF16" s="106"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="16"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="16"/>
-      <c r="AK16" s="9"/>
-      <c r="AL16" s="16"/>
-      <c r="AM16" s="9"/>
-      <c r="AN16" s="16"/>
-      <c r="AO16" s="9"/>
-      <c r="AP16" s="16"/>
-      <c r="AQ16" s="9"/>
-      <c r="AR16" s="16"/>
-      <c r="AS16" s="9"/>
-      <c r="AT16" s="16"/>
-      <c r="AU16" s="9"/>
-      <c r="AV16" s="16"/>
-      <c r="AW16" s="10"/>
-      <c r="AX16" s="20"/>
-      <c r="AY16" s="9"/>
-      <c r="AZ16" s="16"/>
-      <c r="BA16" s="9"/>
-      <c r="BB16" s="16"/>
-      <c r="BC16" s="10"/>
-      <c r="BD16" s="21"/>
+      <c r="AE16" s="121"/>
+      <c r="AF16" s="122"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="157"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="8"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="8"/>
+      <c r="AT16" s="194"/>
+      <c r="AU16" s="176"/>
+      <c r="AV16" s="175"/>
+      <c r="AW16" s="188"/>
+      <c r="AX16" s="176"/>
+      <c r="AY16" s="8"/>
+      <c r="AZ16" s="14"/>
+      <c r="BA16" s="8"/>
+      <c r="BB16" s="14"/>
+      <c r="BC16" s="9"/>
+      <c r="BD16" s="17"/>
     </row>
-    <row r="17" spans="1:56" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="107" t="s">
+    <row r="17" spans="1:56" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="160"/>
-      <c r="O17" s="161"/>
-      <c r="P17" s="161"/>
-      <c r="Q17" s="161"/>
-      <c r="R17" s="161"/>
-      <c r="S17" s="162"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="107" t="str">
+      <c r="B17" s="124"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="155"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="203"/>
+      <c r="V17" s="169"/>
+      <c r="W17" s="182"/>
+      <c r="X17" s="170"/>
+      <c r="Y17" s="170"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="123" t="str">
         <f>IF(A17&lt;&gt;0,A17," ")</f>
         <v xml:space="preserve">   • Firmware f. Sensoren</v>
       </c>
-      <c r="AE17" s="108"/>
-      <c r="AF17" s="109"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="34"/>
-      <c r="AI17" s="35"/>
-      <c r="AJ17" s="34"/>
-      <c r="AK17" s="35"/>
-      <c r="AL17" s="34"/>
-      <c r="AM17" s="35"/>
-      <c r="AN17" s="34"/>
-      <c r="AO17" s="35"/>
-      <c r="AP17" s="34"/>
-      <c r="AQ17" s="35"/>
-      <c r="AR17" s="34"/>
-      <c r="AS17" s="35"/>
-      <c r="AT17" s="34"/>
-      <c r="AU17" s="35"/>
-      <c r="AV17" s="34"/>
-      <c r="AW17" s="39"/>
-      <c r="AX17" s="37"/>
-      <c r="AY17" s="35"/>
-      <c r="AZ17" s="34"/>
-      <c r="BA17" s="35"/>
-      <c r="BB17" s="34"/>
-      <c r="BC17" s="39"/>
-      <c r="BD17" s="21"/>
+      <c r="AE17" s="124"/>
+      <c r="AF17" s="125"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="31"/>
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="31"/>
+      <c r="AL17" s="30"/>
+      <c r="AM17" s="31"/>
+      <c r="AN17" s="30"/>
+      <c r="AO17" s="155"/>
+      <c r="AP17" s="30"/>
+      <c r="AQ17" s="31"/>
+      <c r="AR17" s="30"/>
+      <c r="AS17" s="31"/>
+      <c r="AT17" s="196"/>
+      <c r="AU17" s="169"/>
+      <c r="AV17" s="170"/>
+      <c r="AW17" s="186"/>
+      <c r="AX17" s="169"/>
+      <c r="AY17" s="31"/>
+      <c r="AZ17" s="30"/>
+      <c r="BA17" s="31"/>
+      <c r="BB17" s="30"/>
+      <c r="BC17" s="33"/>
+      <c r="BD17" s="17"/>
     </row>
-    <row r="18" spans="1:56" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="122" t="s">
+    <row r="18" spans="1:56" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="123"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="15"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="15"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="17"/>
+      <c r="J18" s="15"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="15"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="13"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="15"/>
+      <c r="P18" s="13"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="15"/>
+      <c r="R18" s="13"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="15"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="202"/>
+      <c r="V18" s="168"/>
+      <c r="W18" s="184"/>
+      <c r="X18" s="167"/>
+      <c r="Y18" s="167"/>
+      <c r="Z18" s="13"/>
       <c r="AA18" s="4"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="128" t="str">
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="105" t="str">
         <f t="shared" si="1"/>
         <v>Gehäuse</v>
       </c>
-      <c r="AE18" s="129"/>
-      <c r="AF18" s="130"/>
+      <c r="AE18" s="106"/>
+      <c r="AF18" s="107"/>
       <c r="AG18" s="3"/>
-      <c r="AH18" s="15"/>
+      <c r="AH18" s="13"/>
       <c r="AI18" s="4"/>
-      <c r="AJ18" s="15"/>
+      <c r="AJ18" s="13"/>
       <c r="AK18" s="4"/>
-      <c r="AL18" s="15"/>
+      <c r="AL18" s="13"/>
       <c r="AM18" s="4"/>
-      <c r="AN18" s="15"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="15"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="154"/>
+      <c r="AP18" s="13"/>
       <c r="AQ18" s="4"/>
-      <c r="AR18" s="15"/>
+      <c r="AR18" s="13"/>
       <c r="AS18" s="4"/>
-      <c r="AT18" s="15"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="15"/>
-      <c r="AW18" s="5"/>
-      <c r="AX18" s="19"/>
+      <c r="AT18" s="199"/>
+      <c r="AU18" s="168"/>
+      <c r="AV18" s="167"/>
+      <c r="AW18" s="185"/>
+      <c r="AX18" s="168"/>
       <c r="AY18" s="4"/>
-      <c r="AZ18" s="15"/>
+      <c r="AZ18" s="13"/>
       <c r="BA18" s="4"/>
-      <c r="BB18" s="15"/>
+      <c r="BB18" s="13"/>
       <c r="BC18" s="5"/>
-      <c r="BD18" s="21"/>
+      <c r="BD18" s="17"/>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A19" s="125" t="s">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A19" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="126"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="21"/>
-      <c r="AD19" s="125" t="str">
+      <c r="B19" s="109"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="157"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="205"/>
+      <c r="V19" s="176"/>
+      <c r="W19" s="167"/>
+      <c r="X19" s="175"/>
+      <c r="Y19" s="175"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="108" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   • Design</v>
       </c>
-      <c r="AE19" s="126"/>
-      <c r="AF19" s="127"/>
-      <c r="AG19" s="8"/>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="16"/>
-      <c r="AK19" s="9"/>
-      <c r="AL19" s="16"/>
-      <c r="AM19" s="9"/>
-      <c r="AN19" s="16"/>
-      <c r="AO19" s="9"/>
-      <c r="AP19" s="16"/>
-      <c r="AQ19" s="9"/>
-      <c r="AR19" s="163"/>
-      <c r="AS19" s="164"/>
-      <c r="AT19" s="16"/>
-      <c r="AU19" s="9"/>
-      <c r="AV19" s="16"/>
-      <c r="AW19" s="10"/>
-      <c r="AX19" s="20"/>
-      <c r="AY19" s="9"/>
-      <c r="AZ19" s="16"/>
-      <c r="BA19" s="9"/>
-      <c r="BB19" s="16"/>
-      <c r="BC19" s="10"/>
-      <c r="BD19" s="21"/>
+      <c r="AE19" s="109"/>
+      <c r="AF19" s="110"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="157"/>
+      <c r="AP19" s="67"/>
+      <c r="AQ19" s="160"/>
+      <c r="AR19" s="160"/>
+      <c r="AS19" s="68"/>
+      <c r="AT19" s="194"/>
+      <c r="AU19" s="176"/>
+      <c r="AV19" s="175"/>
+      <c r="AW19" s="188"/>
+      <c r="AX19" s="176"/>
+      <c r="AY19" s="8"/>
+      <c r="AZ19" s="14"/>
+      <c r="BA19" s="8"/>
+      <c r="BB19" s="14"/>
+      <c r="BC19" s="9"/>
+      <c r="BD19" s="17"/>
     </row>
-    <row r="20" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="141" t="s">
+    <row r="20" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="142"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="148"/>
-      <c r="L20" s="146"/>
-      <c r="M20" s="145"/>
-      <c r="N20" s="146"/>
-      <c r="O20" s="145"/>
-      <c r="P20" s="146"/>
-      <c r="Q20" s="145"/>
-      <c r="R20" s="146"/>
-      <c r="S20" s="145"/>
-      <c r="T20" s="146"/>
-      <c r="U20" s="149"/>
-      <c r="V20" s="150"/>
-      <c r="W20" s="145"/>
-      <c r="X20" s="146"/>
-      <c r="Y20" s="145"/>
-      <c r="Z20" s="146"/>
-      <c r="AA20" s="145"/>
-      <c r="AB20" s="147"/>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="141" t="str">
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="158"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="206"/>
+      <c r="V20" s="178"/>
+      <c r="W20" s="182"/>
+      <c r="X20" s="179"/>
+      <c r="Y20" s="179"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="55"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="111" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">   • Bau</v>
       </c>
-      <c r="AE20" s="142"/>
-      <c r="AF20" s="143"/>
-      <c r="AG20" s="153"/>
-      <c r="AH20" s="146"/>
-      <c r="AI20" s="145"/>
-      <c r="AJ20" s="146"/>
-      <c r="AK20" s="145"/>
-      <c r="AL20" s="146"/>
-      <c r="AM20" s="145"/>
-      <c r="AN20" s="146"/>
-      <c r="AO20" s="145"/>
-      <c r="AP20" s="146"/>
-      <c r="AQ20" s="145"/>
-      <c r="AR20" s="146"/>
-      <c r="AS20" s="145"/>
-      <c r="AT20" s="165"/>
-      <c r="AU20" s="166"/>
-      <c r="AV20" s="146"/>
-      <c r="AW20" s="154"/>
-      <c r="AX20" s="150"/>
-      <c r="AY20" s="145"/>
-      <c r="AZ20" s="146"/>
-      <c r="BA20" s="145"/>
-      <c r="BB20" s="146"/>
-      <c r="BC20" s="154"/>
-      <c r="BD20" s="21"/>
+      <c r="AE20" s="112"/>
+      <c r="AF20" s="113"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="54"/>
+      <c r="AI20" s="53"/>
+      <c r="AJ20" s="54"/>
+      <c r="AK20" s="53"/>
+      <c r="AL20" s="54"/>
+      <c r="AM20" s="53"/>
+      <c r="AN20" s="54"/>
+      <c r="AO20" s="158"/>
+      <c r="AP20" s="54"/>
+      <c r="AQ20" s="53"/>
+      <c r="AR20" s="54"/>
+      <c r="AS20" s="53"/>
+      <c r="AT20" s="161"/>
+      <c r="AU20" s="190"/>
+      <c r="AV20" s="190"/>
+      <c r="AW20" s="189"/>
+      <c r="AX20" s="178"/>
+      <c r="AY20" s="69"/>
+      <c r="AZ20" s="70"/>
+      <c r="BA20" s="53"/>
+      <c r="BB20" s="54"/>
+      <c r="BC20" s="60"/>
+      <c r="BD20" s="17"/>
     </row>
-    <row r="21" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="131" t="s">
+    <row r="21" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="132"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="134">
+      <c r="B21" s="92"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="46">
         <v>38</v>
       </c>
-      <c r="E21" s="135">
+      <c r="E21" s="47">
         <v>39</v>
       </c>
-      <c r="F21" s="136">
+      <c r="F21" s="48">
         <v>40</v>
       </c>
-      <c r="G21" s="135">
+      <c r="G21" s="47">
         <v>41</v>
       </c>
-      <c r="H21" s="136">
+      <c r="H21" s="48">
         <v>42</v>
       </c>
-      <c r="I21" s="135">
+      <c r="I21" s="47">
         <v>43</v>
       </c>
-      <c r="J21" s="137">
+      <c r="J21" s="49">
         <v>44</v>
       </c>
-      <c r="K21" s="138">
+      <c r="K21" s="50">
         <v>45</v>
       </c>
-      <c r="L21" s="136">
+      <c r="L21" s="48">
         <v>46</v>
       </c>
-      <c r="M21" s="135">
+      <c r="M21" s="159">
         <v>47</v>
       </c>
-      <c r="N21" s="136">
+      <c r="N21" s="48">
         <v>48</v>
       </c>
-      <c r="O21" s="135">
+      <c r="O21" s="47">
         <v>49</v>
       </c>
-      <c r="P21" s="136">
+      <c r="P21" s="48">
         <v>50</v>
       </c>
-      <c r="Q21" s="135">
+      <c r="Q21" s="47">
         <v>51</v>
       </c>
-      <c r="R21" s="136">
+      <c r="R21" s="48">
         <v>52</v>
       </c>
-      <c r="S21" s="135">
+      <c r="S21" s="47">
         <v>1</v>
       </c>
-      <c r="T21" s="136">
+      <c r="T21" s="48">
         <v>2</v>
       </c>
-      <c r="U21" s="139">
+      <c r="U21" s="207">
         <v>3</v>
       </c>
-      <c r="V21" s="140">
+      <c r="V21" s="180">
         <v>4</v>
       </c>
-      <c r="W21" s="135">
+      <c r="W21" s="183">
         <v>5</v>
       </c>
-      <c r="X21" s="136">
+      <c r="X21" s="181">
         <v>6</v>
       </c>
-      <c r="Y21" s="135">
+      <c r="Y21" s="181">
         <v>7</v>
       </c>
-      <c r="Z21" s="136">
+      <c r="Z21" s="48">
         <v>8</v>
       </c>
-      <c r="AA21" s="135">
+      <c r="AA21" s="47">
         <v>9</v>
       </c>
-      <c r="AB21" s="137">
+      <c r="AB21" s="49">
         <v>10</v>
       </c>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="131" t="s">
+      <c r="AC21" s="41"/>
+      <c r="AD21" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="AE21" s="132"/>
-      <c r="AF21" s="133"/>
-      <c r="AG21" s="151">
+      <c r="AE21" s="92"/>
+      <c r="AF21" s="93"/>
+      <c r="AG21" s="57">
         <v>11</v>
       </c>
-      <c r="AH21" s="136">
+      <c r="AH21" s="48">
         <v>12</v>
       </c>
-      <c r="AI21" s="135">
+      <c r="AI21" s="47">
         <v>13</v>
       </c>
-      <c r="AJ21" s="136">
+      <c r="AJ21" s="48">
         <v>14</v>
       </c>
-      <c r="AK21" s="135">
+      <c r="AK21" s="47">
         <v>15</v>
       </c>
-      <c r="AL21" s="136">
+      <c r="AL21" s="48">
         <v>16</v>
       </c>
-      <c r="AM21" s="135">
+      <c r="AM21" s="47">
         <v>17</v>
       </c>
-      <c r="AN21" s="136">
+      <c r="AN21" s="48">
         <v>18</v>
       </c>
-      <c r="AO21" s="135">
+      <c r="AO21" s="159">
         <v>19</v>
       </c>
-      <c r="AP21" s="136">
+      <c r="AP21" s="48">
         <v>20</v>
       </c>
-      <c r="AQ21" s="135">
+      <c r="AQ21" s="47">
         <v>21</v>
       </c>
-      <c r="AR21" s="136">
+      <c r="AR21" s="48">
         <v>22</v>
       </c>
-      <c r="AS21" s="135">
+      <c r="AS21" s="47">
         <v>23</v>
       </c>
-      <c r="AT21" s="136">
+      <c r="AT21" s="200">
         <v>24</v>
       </c>
-      <c r="AU21" s="135">
+      <c r="AU21" s="193">
         <v>25</v>
       </c>
-      <c r="AV21" s="136">
+      <c r="AV21" s="48">
         <v>26</v>
       </c>
-      <c r="AW21" s="152">
+      <c r="AW21" s="58">
         <v>27</v>
       </c>
-      <c r="AX21" s="140">
+      <c r="AX21" s="51">
         <v>28</v>
       </c>
-      <c r="AY21" s="135">
+      <c r="AY21" s="47">
         <v>29</v>
       </c>
-      <c r="AZ21" s="136">
+      <c r="AZ21" s="48">
         <v>30</v>
       </c>
-      <c r="BA21" s="135">
+      <c r="BA21" s="47">
         <v>31</v>
       </c>
-      <c r="BB21" s="136">
+      <c r="BB21" s="48">
         <v>32</v>
       </c>
-      <c r="BC21" s="152">
+      <c r="BC21" s="58">
         <v>33</v>
       </c>
-      <c r="BD21" s="22"/>
+      <c r="BD21" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N17:S17"/>
-    <mergeCell ref="AR19:AS19"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AG15:AK15"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="V9:AA9"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="I5:AB5"/>
-    <mergeCell ref="AG5:BC5"/>
-    <mergeCell ref="BA7:BC7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="AD6:AF6"/>
+  <mergeCells count="64">
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AG11:AI11"/>
+    <mergeCell ref="AY20:AZ20"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AD5:AF5"/>
     <mergeCell ref="AD21:AF21"/>
     <mergeCell ref="D1:U1"/>
     <mergeCell ref="V1:AB1"/>
@@ -3843,39 +4052,31 @@
     <mergeCell ref="AD15:AF15"/>
     <mergeCell ref="AD16:AF16"/>
     <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="I5:AB5"/>
+    <mergeCell ref="AG5:BC5"/>
+    <mergeCell ref="BA7:BC7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="AD6:AF6"/>
     <mergeCell ref="AD8:AF8"/>
     <mergeCell ref="AD9:AF9"/>
     <mergeCell ref="AD10:AF10"/>
     <mergeCell ref="AD11:AF11"/>
     <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AD5:AF5"/>
     <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N17:S17"/>
+    <mergeCell ref="AG15:AK15"/>
+    <mergeCell ref="AP19:AS19"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="3.1496062992125986" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="8" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/graphics/prov_zeitplanung.xlsx
+++ b/graphics/prov_zeitplanung.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Studium\Projekt\Pflichtenheft\graphics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anders\Documents\Studium\Semester_5\Projekt_5\Pflichtenheft\graphics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{16051AE1-7704-489D-8237-810A31095828}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2BEF8A32-E46D-449C-A3A3-06A90B867EA3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12230" xr2:uid="{D4F38930-CA9C-4F92-8E7C-C9561E771B9C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{D4F38930-CA9C-4F92-8E7C-C9561E771B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$BC$21</definedName>
-  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1224,12 +1221,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1342,9 +1336,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1403,282 +1394,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="45" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="46" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="24" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="23" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="25" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="35" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="36" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="37" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1695,20 +1410,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1790,55 +1496,340 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="24" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="23" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="25" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="35" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="36" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="37" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="45" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="46" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1878,13 +1869,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>397986</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>51690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>33687</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>133538</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1946,13 +1937,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>405868</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>46435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>41569</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>128283</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2014,13 +2005,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>397986</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>92613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>405868</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>87358</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2073,15 +2064,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>402753</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>46545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>38453</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>128393</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2141,15 +2132,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>407182</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>54317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>42882</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>136165</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2209,15 +2200,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>402752</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>87469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>407181</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>95241</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2568,1513 +2559,1503 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A7FBE4-95CE-4E9B-9F8E-A537C638CD62}">
-  <dimension ref="A1:BD21"/>
+  <dimension ref="A1:BD25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W36" sqref="W36"/>
+      <selection activeCell="AE32" sqref="AE32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="7.7265625" customWidth="1"/>
-    <col min="4" max="28" width="6.54296875" customWidth="1"/>
-    <col min="29" max="29" width="6.54296875" style="39" customWidth="1"/>
-    <col min="30" max="32" width="7.7265625" customWidth="1"/>
-    <col min="33" max="55" width="6.54296875" customWidth="1"/>
+    <col min="1" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="28" width="6.5703125" customWidth="1"/>
+    <col min="29" max="29" width="6.5703125" style="38" customWidth="1"/>
+    <col min="30" max="32" width="7.7109375" customWidth="1"/>
+    <col min="33" max="55" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="132"/>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="191" t="s">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD1" s="1"/>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD2" s="16"/>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD3" s="16"/>
+    </row>
+    <row r="4" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BD4" s="16"/>
+    </row>
+    <row r="5" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="192"/>
-      <c r="P1" s="192"/>
-      <c r="Q1" s="192"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="192"/>
-      <c r="T1" s="192"/>
-      <c r="U1" s="201"/>
-      <c r="V1" s="94" t="s">
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="158"/>
+      <c r="L5" s="158"/>
+      <c r="M5" s="158"/>
+      <c r="N5" s="158"/>
+      <c r="O5" s="158"/>
+      <c r="P5" s="158"/>
+      <c r="Q5" s="158"/>
+      <c r="R5" s="158"/>
+      <c r="S5" s="158"/>
+      <c r="T5" s="158"/>
+      <c r="U5" s="159"/>
+      <c r="V5" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="96" t="s">
+      <c r="W5" s="160"/>
+      <c r="X5" s="160"/>
+      <c r="Y5" s="160"/>
+      <c r="Z5" s="160"/>
+      <c r="AA5" s="160"/>
+      <c r="AB5" s="161"/>
+      <c r="AC5" s="117"/>
+      <c r="AD5" s="117"/>
+      <c r="AE5" s="117"/>
+      <c r="AF5" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="94"/>
-      <c r="AI1" s="94"/>
-      <c r="AJ1" s="94"/>
-      <c r="AK1" s="94"/>
-      <c r="AL1" s="94"/>
-      <c r="AM1" s="94"/>
-      <c r="AN1" s="94"/>
-      <c r="AO1" s="94"/>
-      <c r="AP1" s="94"/>
-      <c r="AQ1" s="94"/>
-      <c r="AR1" s="94"/>
-      <c r="AS1" s="94"/>
-      <c r="AT1" s="94"/>
-      <c r="AU1" s="94"/>
-      <c r="AV1" s="94"/>
-      <c r="AW1" s="94"/>
-      <c r="AX1" s="94"/>
-      <c r="AY1" s="94"/>
-      <c r="AZ1" s="94"/>
-      <c r="BA1" s="94"/>
-      <c r="BB1" s="94"/>
-      <c r="BC1" s="95"/>
-      <c r="BD1" s="2"/>
+      <c r="AG5" s="160"/>
+      <c r="AH5" s="160"/>
+      <c r="AI5" s="160"/>
+      <c r="AJ5" s="160"/>
+      <c r="AK5" s="160"/>
+      <c r="AL5" s="160"/>
+      <c r="AM5" s="160"/>
+      <c r="AN5" s="160"/>
+      <c r="AO5" s="160"/>
+      <c r="AP5" s="160"/>
+      <c r="AQ5" s="160"/>
+      <c r="AR5" s="160"/>
+      <c r="AS5" s="160"/>
+      <c r="AT5" s="160"/>
+      <c r="AU5" s="160"/>
+      <c r="AV5" s="160"/>
+      <c r="AW5" s="160"/>
+      <c r="AX5" s="160"/>
+      <c r="AY5" s="160"/>
+      <c r="AZ5" s="160"/>
+      <c r="BA5" s="160"/>
+      <c r="BB5" s="161"/>
+      <c r="BD5" s="16"/>
     </row>
-    <row r="2" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="133" t="s">
+    <row r="6" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="97" t="s">
+      <c r="B6" s="119"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="100" t="s">
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="133" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE2" s="134"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="100" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="101"/>
-      <c r="AO2" s="101"/>
-      <c r="AP2" s="101"/>
-      <c r="AQ2" s="101"/>
-      <c r="AR2" s="101"/>
-      <c r="AS2" s="101"/>
-      <c r="AT2" s="101"/>
-      <c r="AU2" s="101"/>
-      <c r="AV2" s="101"/>
-      <c r="AW2" s="102"/>
-      <c r="AX2" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY2" s="103"/>
-      <c r="AZ2" s="103"/>
-      <c r="BA2" s="103"/>
-      <c r="BB2" s="103"/>
-      <c r="BC2" s="104"/>
-      <c r="BD2" s="17"/>
-    </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A3" s="136" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="202"/>
-      <c r="V3" s="168"/>
-      <c r="W3" s="167"/>
-      <c r="X3" s="167"/>
-      <c r="Y3" s="167"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="136" t="str">
-        <f>IF(A3&lt;&gt;0,A3," ")</f>
-        <v>Pflichtenheft</v>
-      </c>
-      <c r="AE3" s="137"/>
-      <c r="AF3" s="138"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="154"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="195"/>
-      <c r="AU3" s="168"/>
-      <c r="AV3" s="167"/>
-      <c r="AW3" s="185"/>
-      <c r="AX3" s="168"/>
-      <c r="AY3" s="4"/>
-      <c r="AZ3" s="13"/>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="13"/>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="17"/>
-    </row>
-    <row r="4" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="139" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="140"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="155"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="203"/>
-      <c r="V4" s="169"/>
-      <c r="W4" s="170"/>
-      <c r="X4" s="170"/>
-      <c r="Y4" s="170"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="139" t="str">
-        <f t="shared" ref="AD4:AD8" si="0">IF(A4&lt;&gt;0,A4," ")</f>
-        <v xml:space="preserve">   • Disposition</v>
-      </c>
-      <c r="AE4" s="140"/>
-      <c r="AF4" s="141"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="30"/>
-      <c r="AO4" s="155"/>
-      <c r="AP4" s="30"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="30"/>
-      <c r="AS4" s="31"/>
-      <c r="AT4" s="196"/>
-      <c r="AU4" s="169"/>
-      <c r="AV4" s="170"/>
-      <c r="AW4" s="186"/>
-      <c r="AX4" s="169"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="30"/>
-      <c r="BA4" s="31"/>
-      <c r="BB4" s="30"/>
-      <c r="BC4" s="33"/>
-      <c r="BD4" s="17"/>
-    </row>
-    <row r="5" spans="1:56" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="142" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="143"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="142" t="str">
-        <f t="shared" si="0"/>
-        <v>Fachbericht</v>
-      </c>
-      <c r="AE5" s="143"/>
-      <c r="AF5" s="144"/>
-      <c r="AG5" s="84"/>
-      <c r="AH5" s="82"/>
-      <c r="AI5" s="82"/>
-      <c r="AJ5" s="82"/>
-      <c r="AK5" s="82"/>
-      <c r="AL5" s="82"/>
-      <c r="AM5" s="82"/>
-      <c r="AN5" s="82"/>
-      <c r="AO5" s="82"/>
-      <c r="AP5" s="82"/>
-      <c r="AQ5" s="82"/>
-      <c r="AR5" s="82"/>
-      <c r="AS5" s="82"/>
-      <c r="AT5" s="82"/>
-      <c r="AU5" s="82"/>
-      <c r="AV5" s="82"/>
-      <c r="AW5" s="82"/>
-      <c r="AX5" s="82"/>
-      <c r="AY5" s="82"/>
-      <c r="AZ5" s="82"/>
-      <c r="BA5" s="82"/>
-      <c r="BB5" s="82"/>
-      <c r="BC5" s="83"/>
-      <c r="BD5" s="17"/>
-    </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A6" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="154"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="202"/>
-      <c r="V6" s="168"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="167"/>
+      <c r="P6" s="167"/>
+      <c r="Q6" s="167"/>
+      <c r="R6" s="167"/>
+      <c r="S6" s="167"/>
+      <c r="T6" s="167"/>
+      <c r="U6" s="167"/>
+      <c r="V6" s="167"/>
       <c r="W6" s="167"/>
       <c r="X6" s="167"/>
       <c r="Y6" s="167"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="88" t="str">
-        <f t="shared" si="0"/>
+      <c r="Z6" s="167"/>
+      <c r="AA6" s="167"/>
+      <c r="AB6" s="168"/>
+      <c r="AC6" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="120"/>
+      <c r="AF6" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="167"/>
+      <c r="AH6" s="167"/>
+      <c r="AI6" s="167"/>
+      <c r="AJ6" s="167"/>
+      <c r="AK6" s="167"/>
+      <c r="AL6" s="167"/>
+      <c r="AM6" s="167"/>
+      <c r="AN6" s="167"/>
+      <c r="AO6" s="167"/>
+      <c r="AP6" s="167"/>
+      <c r="AQ6" s="167"/>
+      <c r="AR6" s="167"/>
+      <c r="AS6" s="167"/>
+      <c r="AT6" s="167"/>
+      <c r="AU6" s="167"/>
+      <c r="AV6" s="168"/>
+      <c r="AW6" s="169" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX6" s="169"/>
+      <c r="AY6" s="169"/>
+      <c r="AZ6" s="169"/>
+      <c r="BA6" s="169"/>
+      <c r="BB6" s="170"/>
+      <c r="BD6" s="16"/>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A7" s="121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="122"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="121" t="str">
+        <f>IF(A7&lt;&gt;0,A7," ")</f>
+        <v>Pflichtenheft</v>
+      </c>
+      <c r="AD7" s="122"/>
+      <c r="AE7" s="123"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="60"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="96"/>
+      <c r="AT7" s="71"/>
+      <c r="AU7" s="70"/>
+      <c r="AV7" s="88"/>
+      <c r="AW7" s="71"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="4"/>
+      <c r="BD7" s="16"/>
+    </row>
+    <row r="8" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="125"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="124" t="str">
+        <f>IF(A8&lt;&gt;0,A8," ")</f>
         <v xml:space="preserve">   • Disposition</v>
       </c>
-      <c r="AE6" s="89"/>
-      <c r="AF6" s="90"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="154"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="197"/>
-      <c r="AU6" s="168"/>
-      <c r="AV6" s="167"/>
-      <c r="AW6" s="185"/>
-      <c r="AX6" s="168"/>
-      <c r="AY6" s="4"/>
-      <c r="AZ6" s="13"/>
-      <c r="BA6" s="21"/>
-      <c r="BB6" s="23"/>
-      <c r="BC6" s="24"/>
-      <c r="BD6" s="17"/>
+      <c r="AD8" s="125"/>
+      <c r="AE8" s="126"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="61"/>
+      <c r="AO8" s="29"/>
+      <c r="AP8" s="30"/>
+      <c r="AQ8" s="29"/>
+      <c r="AR8" s="30"/>
+      <c r="AS8" s="97"/>
+      <c r="AT8" s="72"/>
+      <c r="AU8" s="73"/>
+      <c r="AV8" s="89"/>
+      <c r="AW8" s="72"/>
+      <c r="AX8" s="30"/>
+      <c r="AY8" s="29"/>
+      <c r="AZ8" s="30"/>
+      <c r="BA8" s="29"/>
+      <c r="BB8" s="32"/>
+      <c r="BD8" s="16"/>
     </row>
-    <row r="7" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="151" t="s">
+    <row r="9" spans="1:56" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="127" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="128"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="177"/>
+      <c r="N9" s="177"/>
+      <c r="O9" s="177"/>
+      <c r="P9" s="177"/>
+      <c r="Q9" s="177"/>
+      <c r="R9" s="177"/>
+      <c r="S9" s="177"/>
+      <c r="T9" s="177"/>
+      <c r="U9" s="177"/>
+      <c r="V9" s="177"/>
+      <c r="W9" s="177"/>
+      <c r="X9" s="177"/>
+      <c r="Y9" s="177"/>
+      <c r="Z9" s="177"/>
+      <c r="AA9" s="177"/>
+      <c r="AB9" s="178"/>
+      <c r="AC9" s="127" t="str">
+        <f>IF(A9&lt;&gt;0,A9," ")</f>
+        <v>Fachbericht</v>
+      </c>
+      <c r="AD9" s="128"/>
+      <c r="AE9" s="129"/>
+      <c r="AF9" s="179"/>
+      <c r="AG9" s="177"/>
+      <c r="AH9" s="177"/>
+      <c r="AI9" s="177"/>
+      <c r="AJ9" s="177"/>
+      <c r="AK9" s="177"/>
+      <c r="AL9" s="177"/>
+      <c r="AM9" s="177"/>
+      <c r="AN9" s="177"/>
+      <c r="AO9" s="177"/>
+      <c r="AP9" s="177"/>
+      <c r="AQ9" s="177"/>
+      <c r="AR9" s="177"/>
+      <c r="AS9" s="177"/>
+      <c r="AT9" s="177"/>
+      <c r="AU9" s="177"/>
+      <c r="AV9" s="177"/>
+      <c r="AW9" s="177"/>
+      <c r="AX9" s="177"/>
+      <c r="AY9" s="177"/>
+      <c r="AZ9" s="177"/>
+      <c r="BA9" s="177"/>
+      <c r="BB9" s="178"/>
+      <c r="BD9" s="16"/>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A10" s="183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="184"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="183" t="str">
+        <f>IF(A10&lt;&gt;0,A10," ")</f>
+        <v xml:space="preserve">   • Disposition</v>
+      </c>
+      <c r="AD10" s="184"/>
+      <c r="AE10" s="185"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="60"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="98"/>
+      <c r="AT10" s="71"/>
+      <c r="AU10" s="70"/>
+      <c r="AV10" s="88"/>
+      <c r="AW10" s="71"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="12"/>
+      <c r="AZ10" s="20"/>
+      <c r="BA10" s="22"/>
+      <c r="BB10" s="23"/>
+      <c r="BD10" s="16"/>
+    </row>
+    <row r="11" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="152"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="156"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="204"/>
-      <c r="V7" s="171"/>
-      <c r="W7" s="172"/>
-      <c r="X7" s="172"/>
-      <c r="Y7" s="172"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="145" t="str">
-        <f t="shared" si="0"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="104"/>
+      <c r="V11" s="74"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="189" t="str">
+        <f>IF(A11&lt;&gt;0,A11," ")</f>
         <v xml:space="preserve">   • Korrektur</v>
       </c>
-      <c r="AE7" s="146"/>
-      <c r="AF7" s="147"/>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="27"/>
-      <c r="AI7" s="26"/>
-      <c r="AJ7" s="27"/>
-      <c r="AK7" s="26"/>
-      <c r="AL7" s="27"/>
-      <c r="AM7" s="26"/>
-      <c r="AN7" s="27"/>
-      <c r="AO7" s="156"/>
-      <c r="AP7" s="27"/>
-      <c r="AQ7" s="26"/>
-      <c r="AR7" s="27"/>
-      <c r="AS7" s="26"/>
-      <c r="AT7" s="198"/>
-      <c r="AU7" s="171"/>
-      <c r="AV7" s="172"/>
-      <c r="AW7" s="187"/>
-      <c r="AX7" s="171"/>
-      <c r="AY7" s="26"/>
-      <c r="AZ7" s="38"/>
-      <c r="BA7" s="85"/>
-      <c r="BB7" s="86"/>
-      <c r="BC7" s="87"/>
-      <c r="BD7" s="17"/>
+      <c r="AD11" s="190"/>
+      <c r="AE11" s="191"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="25"/>
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="25"/>
+      <c r="AK11" s="26"/>
+      <c r="AL11" s="25"/>
+      <c r="AM11" s="26"/>
+      <c r="AN11" s="62"/>
+      <c r="AO11" s="26"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="26"/>
+      <c r="AR11" s="25"/>
+      <c r="AS11" s="99"/>
+      <c r="AT11" s="74"/>
+      <c r="AU11" s="75"/>
+      <c r="AV11" s="90"/>
+      <c r="AW11" s="74"/>
+      <c r="AX11" s="25"/>
+      <c r="AY11" s="37"/>
+      <c r="AZ11" s="180"/>
+      <c r="BA11" s="181"/>
+      <c r="BB11" s="182"/>
+      <c r="BD11" s="16"/>
     </row>
-    <row r="8" spans="1:56" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="126" t="s">
+    <row r="12" spans="1:56" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="154"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="202"/>
-      <c r="V8" s="168"/>
-      <c r="W8" s="167"/>
-      <c r="X8" s="167"/>
-      <c r="Y8" s="167"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="126" t="str">
-        <f t="shared" si="0"/>
+      <c r="B12" s="187"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="102"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="186" t="str">
+        <f>IF(A12&lt;&gt;0,A12," ")</f>
         <v>Hardware</v>
       </c>
-      <c r="AE8" s="127"/>
-      <c r="AF8" s="128"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="154"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="199"/>
-      <c r="AU8" s="168"/>
-      <c r="AV8" s="167"/>
-      <c r="AW8" s="185"/>
-      <c r="AX8" s="168"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="13"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="13"/>
-      <c r="BC8" s="5"/>
-      <c r="BD8" s="17"/>
+      <c r="AD12" s="187"/>
+      <c r="AE12" s="188"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="60"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="100"/>
+      <c r="AT12" s="71"/>
+      <c r="AU12" s="70"/>
+      <c r="AV12" s="88"/>
+      <c r="AW12" s="71"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="12"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="12"/>
+      <c r="BB12" s="4"/>
+      <c r="BD12" s="16"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A9" s="129" t="s">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A13" s="114" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" s="130"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="157"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="205"/>
-      <c r="V9" s="174"/>
-      <c r="W9" s="173"/>
-      <c r="X9" s="174"/>
-      <c r="Y9" s="173"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="162"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="129" t="str">
-        <f t="shared" ref="AD9:AD20" si="1">IF(A9&lt;&gt;0,A9," ")</f>
-        <v xml:space="preserve">   • Speisung</v>
-      </c>
-      <c r="AE9" s="130"/>
-      <c r="AF9" s="131"/>
-      <c r="AG9" s="163"/>
-      <c r="AH9" s="76"/>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="77"/>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="14"/>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="157"/>
-      <c r="AP9" s="14"/>
-      <c r="AQ9" s="8"/>
-      <c r="AR9" s="14"/>
-      <c r="AS9" s="8"/>
-      <c r="AT9" s="194"/>
-      <c r="AU9" s="176"/>
-      <c r="AV9" s="175"/>
-      <c r="AW9" s="188"/>
-      <c r="AX9" s="176"/>
-      <c r="AY9" s="8"/>
-      <c r="AZ9" s="14"/>
-      <c r="BA9" s="8"/>
-      <c r="BB9" s="14"/>
-      <c r="BC9" s="9"/>
-      <c r="BD9" s="17"/>
-    </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A10" s="129" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="130"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="157"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="205"/>
-      <c r="V10" s="174"/>
-      <c r="W10" s="173"/>
-      <c r="X10" s="174"/>
-      <c r="Y10" s="175"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="162"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="129" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">         ○ Akku</v>
-      </c>
-      <c r="AE10" s="130"/>
-      <c r="AF10" s="131"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="8"/>
-      <c r="AL10" s="14"/>
-      <c r="AM10" s="8"/>
-      <c r="AN10" s="14"/>
-      <c r="AO10" s="157"/>
-      <c r="AP10" s="14"/>
-      <c r="AQ10" s="8"/>
-      <c r="AR10" s="14"/>
-      <c r="AS10" s="8"/>
-      <c r="AT10" s="194"/>
-      <c r="AU10" s="176"/>
-      <c r="AV10" s="175"/>
-      <c r="AW10" s="188"/>
-      <c r="AX10" s="176"/>
-      <c r="AY10" s="8"/>
-      <c r="AZ10" s="14"/>
-      <c r="BA10" s="8"/>
-      <c r="BB10" s="14"/>
-      <c r="BC10" s="9"/>
-      <c r="BD10" s="17"/>
-    </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A11" s="129" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="130"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="157"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="205"/>
-      <c r="V11" s="176"/>
-      <c r="W11" s="175"/>
-      <c r="X11" s="177"/>
-      <c r="Y11" s="173"/>
-      <c r="Z11" s="165"/>
-      <c r="AA11" s="166"/>
-      <c r="AB11" s="164"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="129" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">         ○ Photovoltaik</v>
-      </c>
-      <c r="AE11" s="130"/>
-      <c r="AF11" s="131"/>
-      <c r="AG11" s="163"/>
-      <c r="AH11" s="76"/>
-      <c r="AI11" s="77"/>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="8"/>
-      <c r="AL11" s="14"/>
-      <c r="AM11" s="8"/>
-      <c r="AN11" s="14"/>
-      <c r="AO11" s="157"/>
-      <c r="AP11" s="14"/>
-      <c r="AQ11" s="8"/>
-      <c r="AR11" s="14"/>
-      <c r="AS11" s="8"/>
-      <c r="AT11" s="194"/>
-      <c r="AU11" s="176"/>
-      <c r="AV11" s="175"/>
-      <c r="AW11" s="188"/>
-      <c r="AX11" s="176"/>
-      <c r="AY11" s="8"/>
-      <c r="AZ11" s="14"/>
-      <c r="BA11" s="8"/>
-      <c r="BB11" s="14"/>
-      <c r="BC11" s="9"/>
-      <c r="BD11" s="17"/>
-    </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A12" s="129" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="205"/>
-      <c r="V12" s="176"/>
-      <c r="W12" s="175"/>
-      <c r="X12" s="175"/>
-      <c r="Y12" s="175"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="129" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   • Sensoren</v>
-      </c>
-      <c r="AE12" s="130"/>
-      <c r="AF12" s="131"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="14"/>
-      <c r="AK12" s="8"/>
-      <c r="AL12" s="14"/>
-      <c r="AM12" s="8"/>
-      <c r="AN12" s="14"/>
-      <c r="AO12" s="157"/>
-      <c r="AP12" s="14"/>
-      <c r="AQ12" s="8"/>
-      <c r="AR12" s="14"/>
-      <c r="AS12" s="8"/>
-      <c r="AT12" s="194"/>
-      <c r="AU12" s="176"/>
-      <c r="AV12" s="175"/>
-      <c r="AW12" s="188"/>
-      <c r="AX12" s="176"/>
-      <c r="AY12" s="8"/>
-      <c r="AZ12" s="14"/>
-      <c r="BA12" s="8"/>
-      <c r="BB12" s="14"/>
-      <c r="BC12" s="9"/>
-      <c r="BD12" s="17"/>
-    </row>
-    <row r="13" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="114" t="s">
-        <v>17</v>
       </c>
       <c r="B13" s="115"/>
       <c r="C13" s="116"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="155"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="203"/>
-      <c r="V13" s="169"/>
-      <c r="W13" s="170"/>
-      <c r="X13" s="170"/>
-      <c r="Y13" s="170"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="114" t="str">
-        <f t="shared" si="1"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="109"/>
+      <c r="AA13" s="109"/>
+      <c r="AB13" s="111"/>
+      <c r="AC13" s="114" t="str">
+        <f>IF(A13&lt;&gt;0,A13," ")</f>
+        <v xml:space="preserve">   • Speisung</v>
+      </c>
+      <c r="AD13" s="115"/>
+      <c r="AE13" s="116"/>
+      <c r="AF13" s="108"/>
+      <c r="AG13" s="109"/>
+      <c r="AH13" s="109"/>
+      <c r="AI13" s="110"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="63"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="7"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="7"/>
+      <c r="AS13" s="95"/>
+      <c r="AT13" s="79"/>
+      <c r="AU13" s="78"/>
+      <c r="AV13" s="91"/>
+      <c r="AW13" s="79"/>
+      <c r="AX13" s="7"/>
+      <c r="AY13" s="13"/>
+      <c r="AZ13" s="7"/>
+      <c r="BA13" s="13"/>
+      <c r="BB13" s="8"/>
+      <c r="BD13" s="16"/>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A14" s="114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="115"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="105"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="109"/>
+      <c r="AA14" s="109"/>
+      <c r="AB14" s="111"/>
+      <c r="AC14" s="114" t="str">
+        <f>IF(A14&lt;&gt;0,A14," ")</f>
+        <v xml:space="preserve">         ○ Akku</v>
+      </c>
+      <c r="AD14" s="115"/>
+      <c r="AE14" s="116"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="63"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="7"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="7"/>
+      <c r="AS14" s="95"/>
+      <c r="AT14" s="79"/>
+      <c r="AU14" s="78"/>
+      <c r="AV14" s="91"/>
+      <c r="AW14" s="79"/>
+      <c r="AX14" s="7"/>
+      <c r="AY14" s="13"/>
+      <c r="AZ14" s="7"/>
+      <c r="BA14" s="13"/>
+      <c r="BB14" s="8"/>
+      <c r="BD14" s="16"/>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A15" s="114" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="115"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="114" t="str">
+        <f>IF(A15&lt;&gt;0,A15," ")</f>
+        <v xml:space="preserve">         ○ Photovoltaik</v>
+      </c>
+      <c r="AD15" s="115"/>
+      <c r="AE15" s="116"/>
+      <c r="AF15" s="108"/>
+      <c r="AG15" s="109"/>
+      <c r="AH15" s="110"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="63"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="7"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="7"/>
+      <c r="AS15" s="95"/>
+      <c r="AT15" s="79"/>
+      <c r="AU15" s="78"/>
+      <c r="AV15" s="91"/>
+      <c r="AW15" s="79"/>
+      <c r="AX15" s="7"/>
+      <c r="AY15" s="13"/>
+      <c r="AZ15" s="7"/>
+      <c r="BA15" s="13"/>
+      <c r="BB15" s="8"/>
+      <c r="BD15" s="16"/>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A16" s="114" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="115"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="195"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="114" t="str">
+        <f>IF(A16&lt;&gt;0,A16," ")</f>
+        <v xml:space="preserve">   • Sensoren</v>
+      </c>
+      <c r="AD16" s="115"/>
+      <c r="AE16" s="116"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="63"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="7"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="7"/>
+      <c r="AS16" s="95"/>
+      <c r="AT16" s="79"/>
+      <c r="AU16" s="78"/>
+      <c r="AV16" s="91"/>
+      <c r="AW16" s="79"/>
+      <c r="AX16" s="7"/>
+      <c r="AY16" s="13"/>
+      <c r="AZ16" s="7"/>
+      <c r="BA16" s="13"/>
+      <c r="BB16" s="8"/>
+      <c r="BD16" s="16"/>
+    </row>
+    <row r="17" spans="1:56" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="145" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="146"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="174"/>
+      <c r="K17" s="175"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="73"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="145" t="str">
+        <f>IF(A17&lt;&gt;0,A17," ")</f>
         <v xml:space="preserve">   • Datenspeicherung</v>
       </c>
-      <c r="AE13" s="115"/>
-      <c r="AF13" s="116"/>
-      <c r="AG13" s="32"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="31"/>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="31"/>
-      <c r="AL13" s="30"/>
-      <c r="AM13" s="31"/>
-      <c r="AN13" s="30"/>
-      <c r="AO13" s="155"/>
-      <c r="AP13" s="30"/>
-      <c r="AQ13" s="31"/>
-      <c r="AR13" s="30"/>
-      <c r="AS13" s="31"/>
-      <c r="AT13" s="196"/>
-      <c r="AU13" s="169"/>
-      <c r="AV13" s="170"/>
-      <c r="AW13" s="186"/>
-      <c r="AX13" s="169"/>
-      <c r="AY13" s="31"/>
-      <c r="AZ13" s="30"/>
-      <c r="BA13" s="31"/>
-      <c r="BB13" s="30"/>
-      <c r="BC13" s="33"/>
-      <c r="BD13" s="17"/>
+      <c r="AD17" s="146"/>
+      <c r="AE17" s="147"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="29"/>
+      <c r="AL17" s="30"/>
+      <c r="AM17" s="29"/>
+      <c r="AN17" s="61"/>
+      <c r="AO17" s="29"/>
+      <c r="AP17" s="30"/>
+      <c r="AQ17" s="29"/>
+      <c r="AR17" s="30"/>
+      <c r="AS17" s="97"/>
+      <c r="AT17" s="72"/>
+      <c r="AU17" s="73"/>
+      <c r="AV17" s="89"/>
+      <c r="AW17" s="72"/>
+      <c r="AX17" s="30"/>
+      <c r="AY17" s="29"/>
+      <c r="AZ17" s="30"/>
+      <c r="BA17" s="29"/>
+      <c r="BB17" s="32"/>
+      <c r="BD17" s="16"/>
     </row>
-    <row r="14" spans="1:56" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="117" t="s">
+    <row r="18" spans="1:56" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="148" t="s">
         <v>12</v>
-      </c>
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="154"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="202"/>
-      <c r="V14" s="168"/>
-      <c r="W14" s="167"/>
-      <c r="X14" s="167"/>
-      <c r="Y14" s="167"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="117" t="str">
-        <f t="shared" si="1"/>
-        <v>Software</v>
-      </c>
-      <c r="AE14" s="118"/>
-      <c r="AF14" s="119"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="13"/>
-      <c r="AO14" s="154"/>
-      <c r="AP14" s="13"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="4"/>
-      <c r="AT14" s="199"/>
-      <c r="AU14" s="168"/>
-      <c r="AV14" s="167"/>
-      <c r="AW14" s="185"/>
-      <c r="AX14" s="168"/>
-      <c r="AY14" s="4"/>
-      <c r="AZ14" s="13"/>
-      <c r="BA14" s="4"/>
-      <c r="BB14" s="13"/>
-      <c r="BC14" s="5"/>
-      <c r="BD14" s="17"/>
-    </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A15" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="157"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="205"/>
-      <c r="V15" s="176"/>
-      <c r="W15" s="167"/>
-      <c r="X15" s="175"/>
-      <c r="Y15" s="175"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="61"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="120" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   • Datenübertragung</v>
-      </c>
-      <c r="AE15" s="121"/>
-      <c r="AF15" s="122"/>
-      <c r="AG15" s="71"/>
-      <c r="AH15" s="72"/>
-      <c r="AI15" s="72"/>
-      <c r="AJ15" s="72"/>
-      <c r="AK15" s="63"/>
-      <c r="AL15" s="14"/>
-      <c r="AM15" s="8"/>
-      <c r="AN15" s="14"/>
-      <c r="AO15" s="157"/>
-      <c r="AP15" s="14"/>
-      <c r="AQ15" s="8"/>
-      <c r="AR15" s="14"/>
-      <c r="AS15" s="8"/>
-      <c r="AT15" s="194"/>
-      <c r="AU15" s="176"/>
-      <c r="AV15" s="175"/>
-      <c r="AW15" s="188"/>
-      <c r="AX15" s="176"/>
-      <c r="AY15" s="8"/>
-      <c r="AZ15" s="14"/>
-      <c r="BA15" s="8"/>
-      <c r="BB15" s="14"/>
-      <c r="BC15" s="9"/>
-      <c r="BD15" s="17"/>
-    </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A16" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="205"/>
-      <c r="V16" s="176"/>
-      <c r="W16" s="167"/>
-      <c r="X16" s="175"/>
-      <c r="Y16" s="175"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="120" t="str">
-        <f>IF(A16&lt;&gt;0,A16," ")</f>
-        <v xml:space="preserve">   • Datenspeicherung</v>
-      </c>
-      <c r="AE16" s="121"/>
-      <c r="AF16" s="122"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="8"/>
-      <c r="AJ16" s="14"/>
-      <c r="AK16" s="8"/>
-      <c r="AL16" s="14"/>
-      <c r="AM16" s="8"/>
-      <c r="AN16" s="14"/>
-      <c r="AO16" s="157"/>
-      <c r="AP16" s="14"/>
-      <c r="AQ16" s="8"/>
-      <c r="AR16" s="14"/>
-      <c r="AS16" s="8"/>
-      <c r="AT16" s="194"/>
-      <c r="AU16" s="176"/>
-      <c r="AV16" s="175"/>
-      <c r="AW16" s="188"/>
-      <c r="AX16" s="176"/>
-      <c r="AY16" s="8"/>
-      <c r="AZ16" s="14"/>
-      <c r="BA16" s="8"/>
-      <c r="BB16" s="14"/>
-      <c r="BC16" s="9"/>
-      <c r="BD16" s="17"/>
-    </row>
-    <row r="17" spans="1:56" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="123" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="124"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="155"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="203"/>
-      <c r="V17" s="169"/>
-      <c r="W17" s="182"/>
-      <c r="X17" s="170"/>
-      <c r="Y17" s="170"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="123" t="str">
-        <f>IF(A17&lt;&gt;0,A17," ")</f>
-        <v xml:space="preserve">   • Firmware f. Sensoren</v>
-      </c>
-      <c r="AE17" s="124"/>
-      <c r="AF17" s="125"/>
-      <c r="AG17" s="32"/>
-      <c r="AH17" s="30"/>
-      <c r="AI17" s="31"/>
-      <c r="AJ17" s="30"/>
-      <c r="AK17" s="31"/>
-      <c r="AL17" s="30"/>
-      <c r="AM17" s="31"/>
-      <c r="AN17" s="30"/>
-      <c r="AO17" s="155"/>
-      <c r="AP17" s="30"/>
-      <c r="AQ17" s="31"/>
-      <c r="AR17" s="30"/>
-      <c r="AS17" s="31"/>
-      <c r="AT17" s="196"/>
-      <c r="AU17" s="169"/>
-      <c r="AV17" s="170"/>
-      <c r="AW17" s="186"/>
-      <c r="AX17" s="169"/>
-      <c r="AY17" s="31"/>
-      <c r="AZ17" s="30"/>
-      <c r="BA17" s="31"/>
-      <c r="BB17" s="30"/>
-      <c r="BC17" s="33"/>
-      <c r="BD17" s="17"/>
-    </row>
-    <row r="18" spans="1:56" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="148" t="s">
-        <v>19</v>
       </c>
       <c r="B18" s="149"/>
       <c r="C18" s="150"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="154"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="202"/>
-      <c r="V18" s="168"/>
-      <c r="W18" s="184"/>
-      <c r="X18" s="167"/>
-      <c r="Y18" s="167"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="105" t="str">
-        <f t="shared" si="1"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="102"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="70"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="148" t="str">
+        <f>IF(A18&lt;&gt;0,A18," ")</f>
+        <v>Software</v>
+      </c>
+      <c r="AD18" s="149"/>
+      <c r="AE18" s="150"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="60"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="100"/>
+      <c r="AT18" s="71"/>
+      <c r="AU18" s="70"/>
+      <c r="AV18" s="88"/>
+      <c r="AW18" s="71"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="12"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="12"/>
+      <c r="BB18" s="4"/>
+      <c r="BD18" s="16"/>
+    </row>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A19" s="151" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="152"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="105"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="151" t="str">
+        <f>IF(A19&lt;&gt;0,A19," ")</f>
+        <v xml:space="preserve">   • Datenübertragung</v>
+      </c>
+      <c r="AD19" s="152"/>
+      <c r="AE19" s="153"/>
+      <c r="AF19" s="201"/>
+      <c r="AG19" s="202"/>
+      <c r="AH19" s="202"/>
+      <c r="AI19" s="202"/>
+      <c r="AJ19" s="197"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="63"/>
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="7"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="7"/>
+      <c r="AS19" s="95"/>
+      <c r="AT19" s="79"/>
+      <c r="AU19" s="78"/>
+      <c r="AV19" s="91"/>
+      <c r="AW19" s="79"/>
+      <c r="AX19" s="7"/>
+      <c r="AY19" s="13"/>
+      <c r="AZ19" s="7"/>
+      <c r="BA19" s="13"/>
+      <c r="BB19" s="8"/>
+      <c r="BD19" s="16"/>
+    </row>
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A20" s="151" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="152"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="196"/>
+      <c r="M20" s="197"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="105"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="151" t="str">
+        <f>IF(A20&lt;&gt;0,A20," ")</f>
+        <v xml:space="preserve">   • Datenspeicherung</v>
+      </c>
+      <c r="AD20" s="152"/>
+      <c r="AE20" s="153"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="63"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="95"/>
+      <c r="AT20" s="79"/>
+      <c r="AU20" s="78"/>
+      <c r="AV20" s="91"/>
+      <c r="AW20" s="79"/>
+      <c r="AX20" s="7"/>
+      <c r="AY20" s="13"/>
+      <c r="AZ20" s="7"/>
+      <c r="BA20" s="13"/>
+      <c r="BB20" s="8"/>
+      <c r="BD20" s="16"/>
+    </row>
+    <row r="21" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="154" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="155"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="198"/>
+      <c r="O21" s="199"/>
+      <c r="P21" s="199"/>
+      <c r="Q21" s="199"/>
+      <c r="R21" s="199"/>
+      <c r="S21" s="200"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="103"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="73"/>
+      <c r="Y21" s="73"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="154" t="str">
+        <f>IF(A21&lt;&gt;0,A21," ")</f>
+        <v xml:space="preserve">   • Firmware f. Sensoren</v>
+      </c>
+      <c r="AD21" s="155"/>
+      <c r="AE21" s="156"/>
+      <c r="AF21" s="31"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="29"/>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="29"/>
+      <c r="AL21" s="30"/>
+      <c r="AM21" s="29"/>
+      <c r="AN21" s="61"/>
+      <c r="AO21" s="29"/>
+      <c r="AP21" s="30"/>
+      <c r="AQ21" s="29"/>
+      <c r="AR21" s="30"/>
+      <c r="AS21" s="97"/>
+      <c r="AT21" s="72"/>
+      <c r="AU21" s="73"/>
+      <c r="AV21" s="89"/>
+      <c r="AW21" s="72"/>
+      <c r="AX21" s="30"/>
+      <c r="AY21" s="29"/>
+      <c r="AZ21" s="30"/>
+      <c r="BA21" s="29"/>
+      <c r="BB21" s="32"/>
+      <c r="BD21" s="17"/>
+    </row>
+    <row r="22" spans="1:56" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="136" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="102"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="87"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="70"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="171" t="str">
+        <f>IF(A22&lt;&gt;0,A22," ")</f>
         <v>Gehäuse</v>
       </c>
-      <c r="AE18" s="106"/>
-      <c r="AF18" s="107"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="13"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="154"/>
-      <c r="AP18" s="13"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="13"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="199"/>
-      <c r="AU18" s="168"/>
-      <c r="AV18" s="167"/>
-      <c r="AW18" s="185"/>
-      <c r="AX18" s="168"/>
-      <c r="AY18" s="4"/>
-      <c r="AZ18" s="13"/>
-      <c r="BA18" s="4"/>
-      <c r="BB18" s="13"/>
-      <c r="BC18" s="5"/>
-      <c r="BD18" s="17"/>
+      <c r="AD22" s="172"/>
+      <c r="AE22" s="173"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="60"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="100"/>
+      <c r="AT22" s="71"/>
+      <c r="AU22" s="70"/>
+      <c r="AV22" s="88"/>
+      <c r="AW22" s="71"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="12"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="12"/>
+      <c r="BB22" s="4"/>
+      <c r="BD22" s="38"/>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A19" s="108" t="s">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A23" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="157"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="205"/>
-      <c r="V19" s="176"/>
-      <c r="W19" s="167"/>
-      <c r="X19" s="175"/>
-      <c r="Y19" s="175"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="108" t="str">
-        <f t="shared" si="1"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="105"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="70"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="139" t="str">
+        <f>IF(A23&lt;&gt;0,A23," ")</f>
         <v xml:space="preserve">   • Design</v>
       </c>
-      <c r="AE19" s="109"/>
-      <c r="AF19" s="110"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="8"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="8"/>
-      <c r="AL19" s="14"/>
-      <c r="AM19" s="8"/>
-      <c r="AN19" s="14"/>
-      <c r="AO19" s="157"/>
-      <c r="AP19" s="67"/>
-      <c r="AQ19" s="160"/>
-      <c r="AR19" s="160"/>
-      <c r="AS19" s="68"/>
-      <c r="AT19" s="194"/>
-      <c r="AU19" s="176"/>
-      <c r="AV19" s="175"/>
-      <c r="AW19" s="188"/>
-      <c r="AX19" s="176"/>
-      <c r="AY19" s="8"/>
-      <c r="AZ19" s="14"/>
-      <c r="BA19" s="8"/>
-      <c r="BB19" s="14"/>
-      <c r="BC19" s="9"/>
-      <c r="BD19" s="17"/>
+      <c r="AD23" s="140"/>
+      <c r="AE23" s="141"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="13"/>
+      <c r="AN23" s="63"/>
+      <c r="AO23" s="203"/>
+      <c r="AP23" s="204"/>
+      <c r="AQ23" s="204"/>
+      <c r="AR23" s="205"/>
+      <c r="AS23" s="95"/>
+      <c r="AT23" s="79"/>
+      <c r="AU23" s="78"/>
+      <c r="AV23" s="91"/>
+      <c r="AW23" s="79"/>
+      <c r="AX23" s="7"/>
+      <c r="AY23" s="13"/>
+      <c r="AZ23" s="7"/>
+      <c r="BA23" s="13"/>
+      <c r="BB23" s="8"/>
+      <c r="BD23" s="38"/>
     </row>
-    <row r="20" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="111" t="s">
+    <row r="24" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="158"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="206"/>
-      <c r="V20" s="178"/>
-      <c r="W20" s="182"/>
-      <c r="X20" s="179"/>
-      <c r="Y20" s="179"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="53"/>
-      <c r="AB20" s="55"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="111" t="str">
-        <f t="shared" si="1"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="106"/>
+      <c r="V24" s="81"/>
+      <c r="W24" s="85"/>
+      <c r="X24" s="82"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="142" t="str">
+        <f>IF(A24&lt;&gt;0,A24," ")</f>
         <v xml:space="preserve">   • Bau</v>
       </c>
-      <c r="AE20" s="112"/>
-      <c r="AF20" s="113"/>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="54"/>
-      <c r="AI20" s="53"/>
-      <c r="AJ20" s="54"/>
-      <c r="AK20" s="53"/>
-      <c r="AL20" s="54"/>
-      <c r="AM20" s="53"/>
-      <c r="AN20" s="54"/>
-      <c r="AO20" s="158"/>
-      <c r="AP20" s="54"/>
-      <c r="AQ20" s="53"/>
-      <c r="AR20" s="54"/>
-      <c r="AS20" s="53"/>
-      <c r="AT20" s="161"/>
-      <c r="AU20" s="190"/>
-      <c r="AV20" s="190"/>
-      <c r="AW20" s="189"/>
-      <c r="AX20" s="178"/>
-      <c r="AY20" s="69"/>
-      <c r="AZ20" s="70"/>
-      <c r="BA20" s="53"/>
-      <c r="BB20" s="54"/>
-      <c r="BC20" s="60"/>
-      <c r="BD20" s="17"/>
+      <c r="AD24" s="143"/>
+      <c r="AE24" s="144"/>
+      <c r="AF24" s="57"/>
+      <c r="AG24" s="52"/>
+      <c r="AH24" s="51"/>
+      <c r="AI24" s="52"/>
+      <c r="AJ24" s="51"/>
+      <c r="AK24" s="52"/>
+      <c r="AL24" s="51"/>
+      <c r="AM24" s="52"/>
+      <c r="AN24" s="64"/>
+      <c r="AO24" s="52"/>
+      <c r="AP24" s="51"/>
+      <c r="AQ24" s="52"/>
+      <c r="AR24" s="51"/>
+      <c r="AS24" s="66"/>
+      <c r="AT24" s="93"/>
+      <c r="AU24" s="93"/>
+      <c r="AV24" s="92"/>
+      <c r="AW24" s="81"/>
+      <c r="AX24" s="112"/>
+      <c r="AY24" s="113"/>
+      <c r="AZ24" s="51"/>
+      <c r="BA24" s="52"/>
+      <c r="BB24" s="58"/>
+      <c r="BD24" s="38"/>
     </row>
-    <row r="21" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="91" t="s">
+    <row r="25" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="46">
+      <c r="B25" s="134"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="44">
         <v>38</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E25" s="45">
         <v>39</v>
       </c>
-      <c r="F21" s="48">
+      <c r="F25" s="46">
         <v>40</v>
       </c>
-      <c r="G21" s="47">
+      <c r="G25" s="45">
         <v>41</v>
       </c>
-      <c r="H21" s="48">
+      <c r="H25" s="46">
         <v>42</v>
       </c>
-      <c r="I21" s="47">
+      <c r="I25" s="45">
         <v>43</v>
       </c>
-      <c r="J21" s="49">
+      <c r="J25" s="47">
         <v>44</v>
       </c>
-      <c r="K21" s="50">
+      <c r="K25" s="48">
         <v>45</v>
       </c>
-      <c r="L21" s="48">
+      <c r="L25" s="46">
         <v>46</v>
       </c>
-      <c r="M21" s="159">
+      <c r="M25" s="65">
         <v>47</v>
       </c>
-      <c r="N21" s="48">
+      <c r="N25" s="46">
         <v>48</v>
       </c>
-      <c r="O21" s="47">
+      <c r="O25" s="45">
         <v>49</v>
       </c>
-      <c r="P21" s="48">
+      <c r="P25" s="46">
         <v>50</v>
       </c>
-      <c r="Q21" s="47">
+      <c r="Q25" s="45">
         <v>51</v>
       </c>
-      <c r="R21" s="48">
+      <c r="R25" s="46">
         <v>52</v>
       </c>
-      <c r="S21" s="47">
+      <c r="S25" s="45">
         <v>1</v>
       </c>
-      <c r="T21" s="48">
+      <c r="T25" s="46">
         <v>2</v>
       </c>
-      <c r="U21" s="207">
+      <c r="U25" s="107">
         <v>3</v>
       </c>
-      <c r="V21" s="180">
+      <c r="V25" s="83">
         <v>4</v>
       </c>
-      <c r="W21" s="183">
+      <c r="W25" s="86">
         <v>5</v>
       </c>
-      <c r="X21" s="181">
+      <c r="X25" s="84">
         <v>6</v>
       </c>
-      <c r="Y21" s="181">
+      <c r="Y25" s="84">
         <v>7</v>
       </c>
-      <c r="Z21" s="48">
+      <c r="Z25" s="46">
         <v>8</v>
       </c>
-      <c r="AA21" s="47">
+      <c r="AA25" s="45">
         <v>9</v>
       </c>
-      <c r="AB21" s="49">
+      <c r="AB25" s="47">
         <v>10</v>
       </c>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="91" t="s">
+      <c r="AC25" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="AE21" s="92"/>
-      <c r="AF21" s="93"/>
-      <c r="AG21" s="57">
+      <c r="AD25" s="134"/>
+      <c r="AE25" s="135"/>
+      <c r="AF25" s="55">
         <v>11</v>
       </c>
-      <c r="AH21" s="48">
+      <c r="AG25" s="46">
         <v>12</v>
       </c>
-      <c r="AI21" s="47">
+      <c r="AH25" s="45">
         <v>13</v>
       </c>
-      <c r="AJ21" s="48">
+      <c r="AI25" s="46">
         <v>14</v>
       </c>
-      <c r="AK21" s="47">
+      <c r="AJ25" s="45">
         <v>15</v>
       </c>
-      <c r="AL21" s="48">
+      <c r="AK25" s="46">
         <v>16</v>
       </c>
-      <c r="AM21" s="47">
+      <c r="AL25" s="45">
         <v>17</v>
       </c>
-      <c r="AN21" s="48">
+      <c r="AM25" s="46">
         <v>18</v>
       </c>
-      <c r="AO21" s="159">
+      <c r="AN25" s="65">
         <v>19</v>
       </c>
-      <c r="AP21" s="48">
+      <c r="AO25" s="46">
         <v>20</v>
       </c>
-      <c r="AQ21" s="47">
+      <c r="AP25" s="45">
         <v>21</v>
       </c>
-      <c r="AR21" s="48">
+      <c r="AQ25" s="46">
         <v>22</v>
       </c>
-      <c r="AS21" s="47">
+      <c r="AR25" s="45">
         <v>23</v>
       </c>
-      <c r="AT21" s="200">
+      <c r="AS25" s="101">
         <v>24</v>
       </c>
-      <c r="AU21" s="193">
+      <c r="AT25" s="94">
         <v>25</v>
       </c>
-      <c r="AV21" s="48">
+      <c r="AU25" s="46">
         <v>26</v>
       </c>
-      <c r="AW21" s="58">
+      <c r="AV25" s="56">
         <v>27</v>
       </c>
-      <c r="AX21" s="51">
+      <c r="AW25" s="49">
         <v>28</v>
       </c>
-      <c r="AY21" s="47">
+      <c r="AX25" s="45">
         <v>29</v>
       </c>
-      <c r="AZ21" s="48">
+      <c r="AY25" s="46">
         <v>30</v>
       </c>
-      <c r="BA21" s="47">
+      <c r="AZ25" s="45">
         <v>31</v>
       </c>
-      <c r="BB21" s="48">
+      <c r="BA25" s="46">
         <v>32</v>
       </c>
-      <c r="BC21" s="58">
+      <c r="BB25" s="56">
         <v>33</v>
       </c>
-      <c r="BD21" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="AG11:AI11"/>
-    <mergeCell ref="AY20:AZ20"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AC13:AE13"/>
+    <mergeCell ref="AC14:AE14"/>
+    <mergeCell ref="AC15:AE15"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="I9:AB9"/>
+    <mergeCell ref="AF9:BB9"/>
+    <mergeCell ref="AZ11:BB11"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="D5:U5"/>
+    <mergeCell ref="V5:AB5"/>
+    <mergeCell ref="AF5:BB5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="K6:AB6"/>
+    <mergeCell ref="AF6:AV6"/>
+    <mergeCell ref="AW6:BB6"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="AD21:AF21"/>
-    <mergeCell ref="D1:U1"/>
-    <mergeCell ref="V1:AB1"/>
-    <mergeCell ref="AG1:BC1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="K2:AB2"/>
-    <mergeCell ref="AG2:AW2"/>
-    <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="AD18:AF18"/>
-    <mergeCell ref="AD19:AF19"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="AD14:AF14"/>
-    <mergeCell ref="AD15:AF15"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="AD17:AF17"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="I5:AB5"/>
-    <mergeCell ref="AG5:BC5"/>
-    <mergeCell ref="BA7:BC7"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="AD6:AF6"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="AD10:AF10"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N17:S17"/>
-    <mergeCell ref="AG15:AK15"/>
-    <mergeCell ref="AP19:AS19"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="AX24:AY24"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="AF19:AJ19"/>
+    <mergeCell ref="AO23:AR23"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="3.1496062992125986" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="8" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/graphics/prov_zeitplanung.xlsx
+++ b/graphics/prov_zeitplanung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anders\Documents\Studium\Semester_5\Projekt_5\Pflichtenheft\graphics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Krakenzeugs\Pflichtenheft\graphics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2BEF8A32-E46D-449C-A3A3-06A90B867EA3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5B10382C-DAF8-4EAC-A152-3605EB3C1EB9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{D4F38930-CA9C-4F92-8E7C-C9561E771B9C}"/>
   </bookViews>
@@ -807,19 +807,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
@@ -1211,6 +1198,19 @@
       <top/>
       <bottom style="medium">
         <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1338,59 +1338,59 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1406,19 +1406,19 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1445,7 +1445,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1457,46 +1457,49 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1514,47 +1517,62 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1565,6 +1583,159 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="24" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="23" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="25" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="35" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="36" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="37" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1613,15 +1784,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1631,205 +1793,43 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="24" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="23" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="25" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="35" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="36" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="37" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="48" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="47" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="45" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="46" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2562,7 +2562,7 @@
   <dimension ref="A1:BD25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE32" sqref="AE32"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2587,150 +2587,150 @@
       <c r="BD4" s="16"/>
     </row>
     <row r="5" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="117"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="157" t="s">
+      <c r="A5" s="174"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="158"/>
-      <c r="K5" s="158"/>
-      <c r="L5" s="158"/>
-      <c r="M5" s="158"/>
-      <c r="N5" s="158"/>
-      <c r="O5" s="158"/>
-      <c r="P5" s="158"/>
-      <c r="Q5" s="158"/>
-      <c r="R5" s="158"/>
-      <c r="S5" s="158"/>
-      <c r="T5" s="158"/>
-      <c r="U5" s="159"/>
-      <c r="V5" s="160" t="s">
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="140"/>
+      <c r="R5" s="140"/>
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="141"/>
+      <c r="V5" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="160"/>
-      <c r="X5" s="160"/>
-      <c r="Y5" s="160"/>
-      <c r="Z5" s="160"/>
-      <c r="AA5" s="160"/>
-      <c r="AB5" s="161"/>
-      <c r="AC5" s="117"/>
-      <c r="AD5" s="117"/>
-      <c r="AE5" s="117"/>
-      <c r="AF5" s="162" t="s">
+      <c r="W5" s="142"/>
+      <c r="X5" s="142"/>
+      <c r="Y5" s="142"/>
+      <c r="Z5" s="142"/>
+      <c r="AA5" s="142"/>
+      <c r="AB5" s="143"/>
+      <c r="AC5" s="174"/>
+      <c r="AD5" s="174"/>
+      <c r="AE5" s="174"/>
+      <c r="AF5" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="AG5" s="160"/>
-      <c r="AH5" s="160"/>
-      <c r="AI5" s="160"/>
-      <c r="AJ5" s="160"/>
-      <c r="AK5" s="160"/>
-      <c r="AL5" s="160"/>
-      <c r="AM5" s="160"/>
-      <c r="AN5" s="160"/>
-      <c r="AO5" s="160"/>
-      <c r="AP5" s="160"/>
-      <c r="AQ5" s="160"/>
-      <c r="AR5" s="160"/>
-      <c r="AS5" s="160"/>
-      <c r="AT5" s="160"/>
-      <c r="AU5" s="160"/>
-      <c r="AV5" s="160"/>
-      <c r="AW5" s="160"/>
-      <c r="AX5" s="160"/>
-      <c r="AY5" s="160"/>
-      <c r="AZ5" s="160"/>
-      <c r="BA5" s="160"/>
-      <c r="BB5" s="161"/>
+      <c r="AG5" s="142"/>
+      <c r="AH5" s="142"/>
+      <c r="AI5" s="142"/>
+      <c r="AJ5" s="142"/>
+      <c r="AK5" s="142"/>
+      <c r="AL5" s="142"/>
+      <c r="AM5" s="142"/>
+      <c r="AN5" s="142"/>
+      <c r="AO5" s="142"/>
+      <c r="AP5" s="142"/>
+      <c r="AQ5" s="142"/>
+      <c r="AR5" s="142"/>
+      <c r="AS5" s="142"/>
+      <c r="AT5" s="142"/>
+      <c r="AU5" s="142"/>
+      <c r="AV5" s="142"/>
+      <c r="AW5" s="142"/>
+      <c r="AX5" s="142"/>
+      <c r="AY5" s="142"/>
+      <c r="AZ5" s="142"/>
+      <c r="BA5" s="142"/>
+      <c r="BB5" s="143"/>
       <c r="BD5" s="16"/>
     </row>
     <row r="6" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="119"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="163" t="s">
+      <c r="B6" s="176"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="165"/>
-      <c r="K6" s="166" t="s">
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="167"/>
-      <c r="O6" s="167"/>
-      <c r="P6" s="167"/>
-      <c r="Q6" s="167"/>
-      <c r="R6" s="167"/>
-      <c r="S6" s="167"/>
-      <c r="T6" s="167"/>
-      <c r="U6" s="167"/>
-      <c r="V6" s="167"/>
-      <c r="W6" s="167"/>
-      <c r="X6" s="167"/>
-      <c r="Y6" s="167"/>
-      <c r="Z6" s="167"/>
-      <c r="AA6" s="167"/>
-      <c r="AB6" s="168"/>
-      <c r="AC6" s="118" t="s">
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="149"/>
+      <c r="O6" s="149"/>
+      <c r="P6" s="149"/>
+      <c r="Q6" s="149"/>
+      <c r="R6" s="149"/>
+      <c r="S6" s="149"/>
+      <c r="T6" s="149"/>
+      <c r="U6" s="149"/>
+      <c r="V6" s="149"/>
+      <c r="W6" s="149"/>
+      <c r="X6" s="149"/>
+      <c r="Y6" s="149"/>
+      <c r="Z6" s="149"/>
+      <c r="AA6" s="149"/>
+      <c r="AB6" s="150"/>
+      <c r="AC6" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="AD6" s="119"/>
-      <c r="AE6" s="120"/>
-      <c r="AF6" s="166" t="s">
+      <c r="AD6" s="176"/>
+      <c r="AE6" s="177"/>
+      <c r="AF6" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="AG6" s="167"/>
-      <c r="AH6" s="167"/>
-      <c r="AI6" s="167"/>
-      <c r="AJ6" s="167"/>
-      <c r="AK6" s="167"/>
-      <c r="AL6" s="167"/>
-      <c r="AM6" s="167"/>
-      <c r="AN6" s="167"/>
-      <c r="AO6" s="167"/>
-      <c r="AP6" s="167"/>
-      <c r="AQ6" s="167"/>
-      <c r="AR6" s="167"/>
-      <c r="AS6" s="167"/>
-      <c r="AT6" s="167"/>
-      <c r="AU6" s="167"/>
-      <c r="AV6" s="168"/>
-      <c r="AW6" s="169" t="s">
+      <c r="AG6" s="149"/>
+      <c r="AH6" s="149"/>
+      <c r="AI6" s="149"/>
+      <c r="AJ6" s="149"/>
+      <c r="AK6" s="149"/>
+      <c r="AL6" s="149"/>
+      <c r="AM6" s="149"/>
+      <c r="AN6" s="149"/>
+      <c r="AO6" s="149"/>
+      <c r="AP6" s="149"/>
+      <c r="AQ6" s="149"/>
+      <c r="AR6" s="149"/>
+      <c r="AS6" s="149"/>
+      <c r="AT6" s="149"/>
+      <c r="AU6" s="149"/>
+      <c r="AV6" s="150"/>
+      <c r="AW6" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="AX6" s="169"/>
-      <c r="AY6" s="169"/>
-      <c r="AZ6" s="169"/>
-      <c r="BA6" s="169"/>
-      <c r="BB6" s="170"/>
+      <c r="AX6" s="151"/>
+      <c r="AY6" s="151"/>
+      <c r="AZ6" s="151"/>
+      <c r="BA6" s="151"/>
+      <c r="BB6" s="152"/>
       <c r="BD6" s="16"/>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="123"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="180"/>
       <c r="D7" s="40"/>
       <c r="E7" s="41"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="193"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="18"/>
+      <c r="F7" s="203"/>
+      <c r="G7" s="204"/>
+      <c r="H7" s="204"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="205"/>
       <c r="K7" s="5"/>
       <c r="L7" s="12"/>
       <c r="M7" s="60"/>
@@ -2749,12 +2749,12 @@
       <c r="Z7" s="12"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="14"/>
-      <c r="AC7" s="121" t="str">
-        <f>IF(A7&lt;&gt;0,A7," ")</f>
+      <c r="AC7" s="178" t="str">
+        <f t="shared" ref="AC7:AC24" si="0">IF(A7&lt;&gt;0,A7," ")</f>
         <v>Pflichtenheft</v>
       </c>
-      <c r="AD7" s="122"/>
-      <c r="AE7" s="123"/>
+      <c r="AD7" s="179"/>
+      <c r="AE7" s="180"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="12"/>
       <c r="AH7" s="3"/>
@@ -2781,11 +2781,11 @@
       <c r="BD7" s="16"/>
     </row>
     <row r="8" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="124" t="s">
+      <c r="A8" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="183"/>
       <c r="D8" s="24"/>
       <c r="E8" s="25"/>
       <c r="F8" s="42"/>
@@ -2811,12 +2811,12 @@
       <c r="Z8" s="29"/>
       <c r="AA8" s="30"/>
       <c r="AB8" s="27"/>
-      <c r="AC8" s="124" t="str">
-        <f>IF(A8&lt;&gt;0,A8," ")</f>
+      <c r="AC8" s="181" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">   • Disposition</v>
       </c>
-      <c r="AD8" s="125"/>
-      <c r="AE8" s="126"/>
+      <c r="AD8" s="182"/>
+      <c r="AE8" s="183"/>
       <c r="AF8" s="31"/>
       <c r="AG8" s="29"/>
       <c r="AH8" s="30"/>
@@ -2843,73 +2843,73 @@
       <c r="BD8" s="16"/>
     </row>
     <row r="9" spans="1:56" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="129"/>
+      <c r="B9" s="185"/>
+      <c r="C9" s="186"/>
       <c r="D9" s="10"/>
       <c r="E9" s="3"/>
       <c r="F9" s="12"/>
       <c r="G9" s="3"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="177"/>
-      <c r="K9" s="177"/>
-      <c r="L9" s="177"/>
-      <c r="M9" s="177"/>
-      <c r="N9" s="177"/>
-      <c r="O9" s="177"/>
-      <c r="P9" s="177"/>
-      <c r="Q9" s="177"/>
-      <c r="R9" s="177"/>
-      <c r="S9" s="177"/>
-      <c r="T9" s="177"/>
-      <c r="U9" s="177"/>
-      <c r="V9" s="177"/>
-      <c r="W9" s="177"/>
-      <c r="X9" s="177"/>
-      <c r="Y9" s="177"/>
-      <c r="Z9" s="177"/>
-      <c r="AA9" s="177"/>
-      <c r="AB9" s="178"/>
-      <c r="AC9" s="127" t="str">
-        <f>IF(A9&lt;&gt;0,A9," ")</f>
+      <c r="I9" s="123"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="124"/>
+      <c r="S9" s="124"/>
+      <c r="T9" s="124"/>
+      <c r="U9" s="124"/>
+      <c r="V9" s="124"/>
+      <c r="W9" s="124"/>
+      <c r="X9" s="124"/>
+      <c r="Y9" s="124"/>
+      <c r="Z9" s="124"/>
+      <c r="AA9" s="124"/>
+      <c r="AB9" s="125"/>
+      <c r="AC9" s="184" t="str">
+        <f t="shared" si="0"/>
         <v>Fachbericht</v>
       </c>
-      <c r="AD9" s="128"/>
-      <c r="AE9" s="129"/>
-      <c r="AF9" s="179"/>
-      <c r="AG9" s="177"/>
-      <c r="AH9" s="177"/>
-      <c r="AI9" s="177"/>
-      <c r="AJ9" s="177"/>
-      <c r="AK9" s="177"/>
-      <c r="AL9" s="177"/>
-      <c r="AM9" s="177"/>
-      <c r="AN9" s="177"/>
-      <c r="AO9" s="177"/>
-      <c r="AP9" s="177"/>
-      <c r="AQ9" s="177"/>
-      <c r="AR9" s="177"/>
-      <c r="AS9" s="177"/>
-      <c r="AT9" s="177"/>
-      <c r="AU9" s="177"/>
-      <c r="AV9" s="177"/>
-      <c r="AW9" s="177"/>
-      <c r="AX9" s="177"/>
-      <c r="AY9" s="177"/>
-      <c r="AZ9" s="177"/>
-      <c r="BA9" s="177"/>
-      <c r="BB9" s="178"/>
+      <c r="AD9" s="185"/>
+      <c r="AE9" s="186"/>
+      <c r="AF9" s="126"/>
+      <c r="AG9" s="124"/>
+      <c r="AH9" s="124"/>
+      <c r="AI9" s="124"/>
+      <c r="AJ9" s="124"/>
+      <c r="AK9" s="124"/>
+      <c r="AL9" s="124"/>
+      <c r="AM9" s="124"/>
+      <c r="AN9" s="124"/>
+      <c r="AO9" s="124"/>
+      <c r="AP9" s="124"/>
+      <c r="AQ9" s="124"/>
+      <c r="AR9" s="124"/>
+      <c r="AS9" s="124"/>
+      <c r="AT9" s="124"/>
+      <c r="AU9" s="124"/>
+      <c r="AV9" s="124"/>
+      <c r="AW9" s="124"/>
+      <c r="AX9" s="124"/>
+      <c r="AY9" s="124"/>
+      <c r="AZ9" s="124"/>
+      <c r="BA9" s="124"/>
+      <c r="BB9" s="125"/>
       <c r="BD9" s="16"/>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A10" s="183" t="s">
+      <c r="A10" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="184"/>
-      <c r="C10" s="185"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="132"/>
       <c r="D10" s="11"/>
       <c r="E10" s="7"/>
       <c r="F10" s="13"/>
@@ -2935,12 +2935,12 @@
       <c r="Z10" s="12"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="14"/>
-      <c r="AC10" s="183" t="str">
-        <f>IF(A10&lt;&gt;0,A10," ")</f>
+      <c r="AC10" s="130" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">   • Disposition</v>
       </c>
-      <c r="AD10" s="184"/>
-      <c r="AE10" s="185"/>
+      <c r="AD10" s="131"/>
+      <c r="AE10" s="132"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="3"/>
@@ -2967,11 +2967,11 @@
       <c r="BD10" s="16"/>
     </row>
     <row r="11" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="131"/>
-      <c r="C11" s="132"/>
+      <c r="B11" s="188"/>
+      <c r="C11" s="189"/>
       <c r="D11" s="33"/>
       <c r="E11" s="30"/>
       <c r="F11" s="29"/>
@@ -2997,12 +2997,12 @@
       <c r="Z11" s="26"/>
       <c r="AA11" s="25"/>
       <c r="AB11" s="34"/>
-      <c r="AC11" s="189" t="str">
-        <f>IF(A11&lt;&gt;0,A11," ")</f>
+      <c r="AC11" s="133" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">   • Korrektur</v>
       </c>
-      <c r="AD11" s="190"/>
-      <c r="AE11" s="191"/>
+      <c r="AD11" s="134"/>
+      <c r="AE11" s="135"/>
       <c r="AF11" s="36"/>
       <c r="AG11" s="26"/>
       <c r="AH11" s="25"/>
@@ -3023,17 +3023,17 @@
       <c r="AW11" s="74"/>
       <c r="AX11" s="25"/>
       <c r="AY11" s="37"/>
-      <c r="AZ11" s="180"/>
-      <c r="BA11" s="181"/>
-      <c r="BB11" s="182"/>
+      <c r="AZ11" s="127"/>
+      <c r="BA11" s="128"/>
+      <c r="BB11" s="129"/>
       <c r="BD11" s="16"/>
     </row>
     <row r="12" spans="1:56" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="186" t="s">
+      <c r="A12" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="187"/>
-      <c r="C12" s="188"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="10"/>
       <c r="E12" s="3"/>
       <c r="F12" s="12"/>
@@ -3059,12 +3059,12 @@
       <c r="Z12" s="12"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="14"/>
-      <c r="AC12" s="186" t="str">
-        <f>IF(A12&lt;&gt;0,A12," ")</f>
+      <c r="AC12" s="117" t="str">
+        <f t="shared" si="0"/>
         <v>Hardware</v>
       </c>
-      <c r="AD12" s="187"/>
-      <c r="AE12" s="188"/>
+      <c r="AD12" s="118"/>
+      <c r="AE12" s="119"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="12"/>
       <c r="AH12" s="3"/>
@@ -3091,11 +3091,11 @@
       <c r="BD12" s="16"/>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="122"/>
       <c r="D13" s="11"/>
       <c r="E13" s="7"/>
       <c r="F13" s="13"/>
@@ -3121,13 +3121,13 @@
       <c r="Z13" s="109"/>
       <c r="AA13" s="109"/>
       <c r="AB13" s="111"/>
-      <c r="AC13" s="114" t="str">
-        <f>IF(A13&lt;&gt;0,A13," ")</f>
+      <c r="AC13" s="120" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">   • Speisung</v>
       </c>
-      <c r="AD13" s="115"/>
-      <c r="AE13" s="116"/>
-      <c r="AF13" s="108"/>
+      <c r="AD13" s="121"/>
+      <c r="AE13" s="122"/>
+      <c r="AF13" s="193"/>
       <c r="AG13" s="109"/>
       <c r="AH13" s="109"/>
       <c r="AI13" s="110"/>
@@ -3153,11 +3153,11 @@
       <c r="BD13" s="16"/>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="122"/>
       <c r="D14" s="11"/>
       <c r="E14" s="7"/>
       <c r="F14" s="13"/>
@@ -3183,12 +3183,12 @@
       <c r="Z14" s="109"/>
       <c r="AA14" s="109"/>
       <c r="AB14" s="111"/>
-      <c r="AC14" s="114" t="str">
-        <f>IF(A14&lt;&gt;0,A14," ")</f>
+      <c r="AC14" s="120" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">         ○ Akku</v>
       </c>
-      <c r="AD14" s="115"/>
-      <c r="AE14" s="116"/>
+      <c r="AD14" s="121"/>
+      <c r="AE14" s="122"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="13"/>
       <c r="AH14" s="7"/>
@@ -3215,11 +3215,11 @@
       <c r="BD14" s="16"/>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="115"/>
-      <c r="C15" s="116"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="122"/>
       <c r="D15" s="11"/>
       <c r="E15" s="7"/>
       <c r="F15" s="13"/>
@@ -3245,13 +3245,13 @@
       <c r="Z15" s="68"/>
       <c r="AA15" s="69"/>
       <c r="AB15" s="67"/>
-      <c r="AC15" s="114" t="str">
-        <f>IF(A15&lt;&gt;0,A15," ")</f>
+      <c r="AC15" s="120" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">         ○ Photovoltaik</v>
       </c>
-      <c r="AD15" s="115"/>
-      <c r="AE15" s="116"/>
-      <c r="AF15" s="108"/>
+      <c r="AD15" s="121"/>
+      <c r="AE15" s="122"/>
+      <c r="AF15" s="193"/>
       <c r="AG15" s="109"/>
       <c r="AH15" s="110"/>
       <c r="AI15" s="13"/>
@@ -3277,18 +3277,18 @@
       <c r="BD15" s="16"/>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="116"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="122"/>
       <c r="D16" s="11"/>
       <c r="E16" s="7"/>
       <c r="F16" s="13"/>
       <c r="G16" s="7"/>
       <c r="H16" s="13"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="195"/>
+      <c r="J16" s="108"/>
       <c r="K16" s="109"/>
       <c r="L16" s="109"/>
       <c r="M16" s="109"/>
@@ -3307,12 +3307,12 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="15"/>
-      <c r="AC16" s="114" t="str">
-        <f>IF(A16&lt;&gt;0,A16," ")</f>
+      <c r="AC16" s="120" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">   • Sensoren</v>
       </c>
-      <c r="AD16" s="115"/>
-      <c r="AE16" s="116"/>
+      <c r="AD16" s="121"/>
+      <c r="AE16" s="122"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="13"/>
       <c r="AH16" s="7"/>
@@ -3339,19 +3339,19 @@
       <c r="BD16" s="16"/>
     </row>
     <row r="17" spans="1:56" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="145" t="s">
+      <c r="A17" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="146"/>
-      <c r="C17" s="147"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="164"/>
       <c r="D17" s="33"/>
       <c r="E17" s="30"/>
       <c r="F17" s="29"/>
       <c r="G17" s="30"/>
       <c r="H17" s="29"/>
       <c r="I17" s="30"/>
-      <c r="J17" s="174"/>
-      <c r="K17" s="175"/>
+      <c r="J17" s="196"/>
+      <c r="K17" s="197"/>
       <c r="L17" s="29"/>
       <c r="M17" s="61"/>
       <c r="N17" s="29"/>
@@ -3369,12 +3369,12 @@
       <c r="Z17" s="29"/>
       <c r="AA17" s="30"/>
       <c r="AB17" s="27"/>
-      <c r="AC17" s="145" t="str">
-        <f>IF(A17&lt;&gt;0,A17," ")</f>
+      <c r="AC17" s="162" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">   • Datenspeicherung</v>
       </c>
-      <c r="AD17" s="146"/>
-      <c r="AE17" s="147"/>
+      <c r="AD17" s="163"/>
+      <c r="AE17" s="164"/>
       <c r="AF17" s="31"/>
       <c r="AG17" s="29"/>
       <c r="AH17" s="30"/>
@@ -3401,11 +3401,11 @@
       <c r="BD17" s="16"/>
     </row>
     <row r="18" spans="1:56" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="148" t="s">
+      <c r="A18" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="149"/>
-      <c r="C18" s="150"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="167"/>
       <c r="D18" s="10"/>
       <c r="E18" s="3"/>
       <c r="F18" s="12"/>
@@ -3431,12 +3431,12 @@
       <c r="Z18" s="12"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="14"/>
-      <c r="AC18" s="148" t="str">
-        <f>IF(A18&lt;&gt;0,A18," ")</f>
+      <c r="AC18" s="165" t="str">
+        <f t="shared" si="0"/>
         <v>Software</v>
       </c>
-      <c r="AD18" s="149"/>
-      <c r="AE18" s="150"/>
+      <c r="AD18" s="166"/>
+      <c r="AE18" s="167"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="12"/>
       <c r="AH18" s="3"/>
@@ -3463,11 +3463,11 @@
       <c r="BD18" s="16"/>
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A19" s="151" t="s">
+      <c r="A19" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="152"/>
-      <c r="C19" s="153"/>
+      <c r="B19" s="169"/>
+      <c r="C19" s="170"/>
       <c r="D19" s="11"/>
       <c r="E19" s="7"/>
       <c r="F19" s="13"/>
@@ -3493,17 +3493,17 @@
       <c r="Z19" s="13"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="59"/>
-      <c r="AC19" s="151" t="str">
-        <f>IF(A19&lt;&gt;0,A19," ")</f>
+      <c r="AC19" s="168" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">   • Datenübertragung</v>
       </c>
-      <c r="AD19" s="152"/>
-      <c r="AE19" s="153"/>
-      <c r="AF19" s="201"/>
-      <c r="AG19" s="202"/>
-      <c r="AH19" s="202"/>
-      <c r="AI19" s="202"/>
-      <c r="AJ19" s="197"/>
+      <c r="AD19" s="169"/>
+      <c r="AE19" s="170"/>
+      <c r="AF19" s="198"/>
+      <c r="AG19" s="199"/>
+      <c r="AH19" s="199"/>
+      <c r="AI19" s="199"/>
+      <c r="AJ19" s="113"/>
       <c r="AK19" s="13"/>
       <c r="AL19" s="7"/>
       <c r="AM19" s="13"/>
@@ -3525,11 +3525,11 @@
       <c r="BD19" s="16"/>
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A20" s="151" t="s">
+      <c r="A20" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="152"/>
-      <c r="C20" s="153"/>
+      <c r="B20" s="169"/>
+      <c r="C20" s="170"/>
       <c r="D20" s="11"/>
       <c r="E20" s="7"/>
       <c r="F20" s="13"/>
@@ -3538,8 +3538,8 @@
       <c r="I20" s="7"/>
       <c r="J20" s="15"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="196"/>
-      <c r="M20" s="197"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="113"/>
       <c r="N20" s="13"/>
       <c r="O20" s="7"/>
       <c r="P20" s="13"/>
@@ -3555,12 +3555,12 @@
       <c r="Z20" s="13"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="39"/>
-      <c r="AC20" s="151" t="str">
-        <f>IF(A20&lt;&gt;0,A20," ")</f>
+      <c r="AC20" s="168" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">   • Datenspeicherung</v>
       </c>
-      <c r="AD20" s="152"/>
-      <c r="AE20" s="153"/>
+      <c r="AD20" s="169"/>
+      <c r="AE20" s="170"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="13"/>
       <c r="AH20" s="7"/>
@@ -3587,11 +3587,11 @@
       <c r="BD20" s="16"/>
     </row>
     <row r="21" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="154" t="s">
+      <c r="A21" s="171" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="155"/>
-      <c r="C21" s="156"/>
+      <c r="B21" s="172"/>
+      <c r="C21" s="173"/>
       <c r="D21" s="33"/>
       <c r="E21" s="30"/>
       <c r="F21" s="29"/>
@@ -3602,12 +3602,12 @@
       <c r="K21" s="28"/>
       <c r="L21" s="29"/>
       <c r="M21" s="61"/>
-      <c r="N21" s="198"/>
-      <c r="O21" s="199"/>
-      <c r="P21" s="199"/>
-      <c r="Q21" s="199"/>
-      <c r="R21" s="199"/>
-      <c r="S21" s="200"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="115"/>
+      <c r="P21" s="115"/>
+      <c r="Q21" s="115"/>
+      <c r="R21" s="115"/>
+      <c r="S21" s="116"/>
       <c r="T21" s="29"/>
       <c r="U21" s="103"/>
       <c r="V21" s="72"/>
@@ -3617,12 +3617,12 @@
       <c r="Z21" s="29"/>
       <c r="AA21" s="30"/>
       <c r="AB21" s="27"/>
-      <c r="AC21" s="154" t="str">
-        <f>IF(A21&lt;&gt;0,A21," ")</f>
+      <c r="AC21" s="171" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">   • Firmware f. Sensoren</v>
       </c>
-      <c r="AD21" s="155"/>
-      <c r="AE21" s="156"/>
+      <c r="AD21" s="172"/>
+      <c r="AE21" s="173"/>
       <c r="AF21" s="31"/>
       <c r="AG21" s="29"/>
       <c r="AH21" s="30"/>
@@ -3649,11 +3649,11 @@
       <c r="BD21" s="17"/>
     </row>
     <row r="22" spans="1:56" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="136" t="s">
+      <c r="A22" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="137"/>
-      <c r="C22" s="138"/>
+      <c r="B22" s="191"/>
+      <c r="C22" s="192"/>
       <c r="D22" s="10"/>
       <c r="E22" s="3"/>
       <c r="F22" s="12"/>
@@ -3679,12 +3679,12 @@
       <c r="Z22" s="12"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="14"/>
-      <c r="AC22" s="171" t="str">
-        <f>IF(A22&lt;&gt;0,A22," ")</f>
+      <c r="AC22" s="153" t="str">
+        <f t="shared" si="0"/>
         <v>Gehäuse</v>
       </c>
-      <c r="AD22" s="172"/>
-      <c r="AE22" s="173"/>
+      <c r="AD22" s="154"/>
+      <c r="AE22" s="155"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="12"/>
       <c r="AH22" s="3"/>
@@ -3711,11 +3711,11 @@
       <c r="BD22" s="38"/>
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A23" s="139" t="s">
+      <c r="A23" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="140"/>
-      <c r="C23" s="141"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="158"/>
       <c r="D23" s="11"/>
       <c r="E23" s="7"/>
       <c r="F23" s="13"/>
@@ -3741,12 +3741,12 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="7"/>
       <c r="AB23" s="15"/>
-      <c r="AC23" s="139" t="str">
-        <f>IF(A23&lt;&gt;0,A23," ")</f>
+      <c r="AC23" s="156" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">   • Design</v>
       </c>
-      <c r="AD23" s="140"/>
-      <c r="AE23" s="141"/>
+      <c r="AD23" s="157"/>
+      <c r="AE23" s="158"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="13"/>
       <c r="AH23" s="7"/>
@@ -3756,10 +3756,10 @@
       <c r="AL23" s="7"/>
       <c r="AM23" s="13"/>
       <c r="AN23" s="63"/>
-      <c r="AO23" s="203"/>
-      <c r="AP23" s="204"/>
-      <c r="AQ23" s="204"/>
-      <c r="AR23" s="205"/>
+      <c r="AO23" s="200"/>
+      <c r="AP23" s="201"/>
+      <c r="AQ23" s="201"/>
+      <c r="AR23" s="202"/>
       <c r="AS23" s="95"/>
       <c r="AT23" s="79"/>
       <c r="AU23" s="78"/>
@@ -3773,11 +3773,11 @@
       <c r="BD23" s="38"/>
     </row>
     <row r="24" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="142" t="s">
+      <c r="A24" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="143"/>
-      <c r="C24" s="144"/>
+      <c r="B24" s="160"/>
+      <c r="C24" s="161"/>
       <c r="D24" s="50"/>
       <c r="E24" s="51"/>
       <c r="F24" s="52"/>
@@ -3803,12 +3803,12 @@
       <c r="Z24" s="52"/>
       <c r="AA24" s="51"/>
       <c r="AB24" s="53"/>
-      <c r="AC24" s="142" t="str">
-        <f>IF(A24&lt;&gt;0,A24," ")</f>
+      <c r="AC24" s="159" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">   • Bau</v>
       </c>
-      <c r="AD24" s="143"/>
-      <c r="AE24" s="144"/>
+      <c r="AD24" s="160"/>
+      <c r="AE24" s="161"/>
       <c r="AF24" s="57"/>
       <c r="AG24" s="52"/>
       <c r="AH24" s="51"/>
@@ -3827,19 +3827,19 @@
       <c r="AU24" s="93"/>
       <c r="AV24" s="92"/>
       <c r="AW24" s="81"/>
-      <c r="AX24" s="112"/>
-      <c r="AY24" s="113"/>
+      <c r="AX24" s="194"/>
+      <c r="AY24" s="195"/>
       <c r="AZ24" s="51"/>
       <c r="BA24" s="52"/>
       <c r="BB24" s="58"/>
       <c r="BD24" s="38"/>
     </row>
     <row r="25" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="133" t="s">
+      <c r="A25" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="134"/>
-      <c r="C25" s="135"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="138"/>
       <c r="D25" s="44">
         <v>38</v>
       </c>
@@ -3915,11 +3915,11 @@
       <c r="AB25" s="47">
         <v>10</v>
       </c>
-      <c r="AC25" s="133" t="s">
+      <c r="AC25" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="AD25" s="134"/>
-      <c r="AE25" s="135"/>
+      <c r="AD25" s="137"/>
+      <c r="AE25" s="138"/>
       <c r="AF25" s="55">
         <v>11</v>
       </c>
@@ -3991,23 +3991,38 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AC13:AE13"/>
-    <mergeCell ref="AC14:AE14"/>
-    <mergeCell ref="AC15:AE15"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="I9:AB9"/>
-    <mergeCell ref="AF9:BB9"/>
-    <mergeCell ref="AZ11:BB11"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AC11:AE11"/>
+  <mergeCells count="63">
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="AX24:AY24"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="AF19:AJ19"/>
+    <mergeCell ref="AO23:AR23"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="AC9:AE9"/>
     <mergeCell ref="AC25:AE25"/>
     <mergeCell ref="D5:U5"/>
     <mergeCell ref="V5:AB5"/>
@@ -4024,38 +4039,22 @@
     <mergeCell ref="AC19:AE19"/>
     <mergeCell ref="AC20:AE20"/>
     <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="AF9:BB9"/>
+    <mergeCell ref="AZ11:BB11"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="AC11:AE11"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="AX24:AY24"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="AF19:AJ19"/>
-    <mergeCell ref="AO23:AR23"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AC13:AE13"/>
+    <mergeCell ref="AC14:AE14"/>
+    <mergeCell ref="AC15:AE15"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="I9:AB9"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="3.1496062992125986" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="8" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/graphics/prov_zeitplanung.xlsx
+++ b/graphics/prov_zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Krakenzeugs\Pflichtenheft\graphics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5B10382C-DAF8-4EAC-A152-3605EB3C1EB9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2D5617A8-B902-432D-B0C1-973E0065409F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{D4F38930-CA9C-4F92-8E7C-C9561E771B9C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Analysephase</t>
   </si>
@@ -94,6 +94,24 @@
   </si>
   <si>
     <t xml:space="preserve">   • Bau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  • Sonnenstunden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  • Lufttemperatur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  • Windgeschwindigkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  •  Niederschlagsmenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               • Validierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              • Validierung</t>
   </si>
 </sst>
 </file>
@@ -233,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="76">
+  <borders count="82">
     <border>
       <left/>
       <right/>
@@ -1212,6 +1230,78 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1221,7 +1311,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1538,291 +1628,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="24" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="23" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="25" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="35" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="36" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="37" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="47" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1832,6 +1637,349 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="23" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="25" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="35" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="36" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="37" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="24" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -1869,13 +2017,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>397986</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>51690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>33687</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>133538</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1937,13 +2085,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>405868</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>46435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>41569</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>128283</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2005,13 +2153,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>397986</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>92613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>405868</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>87358</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2066,13 +2214,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>402753</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>46545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>38453</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>128393</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2134,13 +2282,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>407182</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>54317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>42882</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>136165</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2202,13 +2350,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>402752</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>87469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>407181</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>95241</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2559,18 +2707,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A7FBE4-95CE-4E9B-9F8E-A537C638CD62}">
-  <dimension ref="A1:BD25"/>
+  <dimension ref="A1:BD42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="AI39" sqref="AI39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="28" width="6.5703125" customWidth="1"/>
     <col min="29" max="29" width="6.5703125" style="38" customWidth="1"/>
-    <col min="30" max="32" width="7.7109375" customWidth="1"/>
+    <col min="30" max="30" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="7.7109375" customWidth="1"/>
     <col min="33" max="55" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2587,150 +2738,150 @@
       <c r="BD4" s="16"/>
     </row>
     <row r="5" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="174"/>
-      <c r="B5" s="174"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="139" t="s">
+      <c r="A5" s="131"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="140"/>
-      <c r="R5" s="140"/>
-      <c r="S5" s="140"/>
-      <c r="T5" s="140"/>
-      <c r="U5" s="141"/>
-      <c r="V5" s="142" t="s">
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="169"/>
+      <c r="M5" s="169"/>
+      <c r="N5" s="169"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="169"/>
+      <c r="Q5" s="169"/>
+      <c r="R5" s="169"/>
+      <c r="S5" s="169"/>
+      <c r="T5" s="169"/>
+      <c r="U5" s="170"/>
+      <c r="V5" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="142"/>
-      <c r="X5" s="142"/>
-      <c r="Y5" s="142"/>
-      <c r="Z5" s="142"/>
-      <c r="AA5" s="142"/>
-      <c r="AB5" s="143"/>
-      <c r="AC5" s="174"/>
-      <c r="AD5" s="174"/>
-      <c r="AE5" s="174"/>
-      <c r="AF5" s="144" t="s">
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="131"/>
+      <c r="AD5" s="131"/>
+      <c r="AE5" s="131"/>
+      <c r="AF5" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="AG5" s="142"/>
-      <c r="AH5" s="142"/>
-      <c r="AI5" s="142"/>
-      <c r="AJ5" s="142"/>
-      <c r="AK5" s="142"/>
-      <c r="AL5" s="142"/>
-      <c r="AM5" s="142"/>
-      <c r="AN5" s="142"/>
-      <c r="AO5" s="142"/>
-      <c r="AP5" s="142"/>
-      <c r="AQ5" s="142"/>
-      <c r="AR5" s="142"/>
-      <c r="AS5" s="142"/>
-      <c r="AT5" s="142"/>
-      <c r="AU5" s="142"/>
-      <c r="AV5" s="142"/>
-      <c r="AW5" s="142"/>
-      <c r="AX5" s="142"/>
-      <c r="AY5" s="142"/>
-      <c r="AZ5" s="142"/>
-      <c r="BA5" s="142"/>
-      <c r="BB5" s="143"/>
+      <c r="AG5" s="171"/>
+      <c r="AH5" s="171"/>
+      <c r="AI5" s="171"/>
+      <c r="AJ5" s="171"/>
+      <c r="AK5" s="171"/>
+      <c r="AL5" s="171"/>
+      <c r="AM5" s="171"/>
+      <c r="AN5" s="171"/>
+      <c r="AO5" s="171"/>
+      <c r="AP5" s="171"/>
+      <c r="AQ5" s="171"/>
+      <c r="AR5" s="171"/>
+      <c r="AS5" s="171"/>
+      <c r="AT5" s="171"/>
+      <c r="AU5" s="171"/>
+      <c r="AV5" s="171"/>
+      <c r="AW5" s="171"/>
+      <c r="AX5" s="171"/>
+      <c r="AY5" s="171"/>
+      <c r="AZ5" s="171"/>
+      <c r="BA5" s="171"/>
+      <c r="BB5" s="172"/>
       <c r="BD5" s="16"/>
     </row>
     <row r="6" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="175" t="s">
+      <c r="A6" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="176"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="145" t="s">
+      <c r="B6" s="133"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="148" t="s">
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="176"/>
+      <c r="K6" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="149"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="149"/>
-      <c r="O6" s="149"/>
-      <c r="P6" s="149"/>
-      <c r="Q6" s="149"/>
-      <c r="R6" s="149"/>
-      <c r="S6" s="149"/>
-      <c r="T6" s="149"/>
-      <c r="U6" s="149"/>
-      <c r="V6" s="149"/>
-      <c r="W6" s="149"/>
-      <c r="X6" s="149"/>
-      <c r="Y6" s="149"/>
-      <c r="Z6" s="149"/>
-      <c r="AA6" s="149"/>
-      <c r="AB6" s="150"/>
-      <c r="AC6" s="175" t="s">
+      <c r="L6" s="178"/>
+      <c r="M6" s="178"/>
+      <c r="N6" s="178"/>
+      <c r="O6" s="178"/>
+      <c r="P6" s="178"/>
+      <c r="Q6" s="178"/>
+      <c r="R6" s="178"/>
+      <c r="S6" s="178"/>
+      <c r="T6" s="178"/>
+      <c r="U6" s="178"/>
+      <c r="V6" s="178"/>
+      <c r="W6" s="178"/>
+      <c r="X6" s="178"/>
+      <c r="Y6" s="178"/>
+      <c r="Z6" s="178"/>
+      <c r="AA6" s="178"/>
+      <c r="AB6" s="179"/>
+      <c r="AC6" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="AD6" s="176"/>
-      <c r="AE6" s="177"/>
-      <c r="AF6" s="148" t="s">
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="134"/>
+      <c r="AF6" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="AG6" s="149"/>
-      <c r="AH6" s="149"/>
-      <c r="AI6" s="149"/>
-      <c r="AJ6" s="149"/>
-      <c r="AK6" s="149"/>
-      <c r="AL6" s="149"/>
-      <c r="AM6" s="149"/>
-      <c r="AN6" s="149"/>
-      <c r="AO6" s="149"/>
-      <c r="AP6" s="149"/>
-      <c r="AQ6" s="149"/>
-      <c r="AR6" s="149"/>
-      <c r="AS6" s="149"/>
-      <c r="AT6" s="149"/>
-      <c r="AU6" s="149"/>
-      <c r="AV6" s="150"/>
-      <c r="AW6" s="151" t="s">
+      <c r="AG6" s="178"/>
+      <c r="AH6" s="178"/>
+      <c r="AI6" s="178"/>
+      <c r="AJ6" s="178"/>
+      <c r="AK6" s="178"/>
+      <c r="AL6" s="178"/>
+      <c r="AM6" s="178"/>
+      <c r="AN6" s="178"/>
+      <c r="AO6" s="178"/>
+      <c r="AP6" s="178"/>
+      <c r="AQ6" s="178"/>
+      <c r="AR6" s="178"/>
+      <c r="AS6" s="178"/>
+      <c r="AT6" s="178"/>
+      <c r="AU6" s="178"/>
+      <c r="AV6" s="179"/>
+      <c r="AW6" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="AX6" s="151"/>
-      <c r="AY6" s="151"/>
-      <c r="AZ6" s="151"/>
-      <c r="BA6" s="151"/>
-      <c r="BB6" s="152"/>
+      <c r="AX6" s="180"/>
+      <c r="AY6" s="180"/>
+      <c r="AZ6" s="180"/>
+      <c r="BA6" s="180"/>
+      <c r="BB6" s="181"/>
       <c r="BD6" s="16"/>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A7" s="178" t="s">
+      <c r="A7" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="179"/>
-      <c r="C7" s="180"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="137"/>
       <c r="D7" s="40"/>
       <c r="E7" s="41"/>
-      <c r="F7" s="203"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="205"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="110"/>
       <c r="K7" s="5"/>
       <c r="L7" s="12"/>
       <c r="M7" s="60"/>
@@ -2749,12 +2900,12 @@
       <c r="Z7" s="12"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="14"/>
-      <c r="AC7" s="178" t="str">
-        <f t="shared" ref="AC7:AC24" si="0">IF(A7&lt;&gt;0,A7," ")</f>
+      <c r="AC7" s="135" t="str">
+        <f t="shared" ref="AC7:AC32" si="0">IF(A7&lt;&gt;0,A7," ")</f>
         <v>Pflichtenheft</v>
       </c>
-      <c r="AD7" s="179"/>
-      <c r="AE7" s="180"/>
+      <c r="AD7" s="136"/>
+      <c r="AE7" s="137"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="12"/>
       <c r="AH7" s="3"/>
@@ -2781,11 +2932,11 @@
       <c r="BD7" s="16"/>
     </row>
     <row r="8" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="181" t="s">
+      <c r="A8" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="182"/>
-      <c r="C8" s="183"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="24"/>
       <c r="E8" s="25"/>
       <c r="F8" s="42"/>
@@ -2811,12 +2962,12 @@
       <c r="Z8" s="29"/>
       <c r="AA8" s="30"/>
       <c r="AB8" s="27"/>
-      <c r="AC8" s="181" t="str">
+      <c r="AC8" s="138" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">   • Disposition</v>
       </c>
-      <c r="AD8" s="182"/>
-      <c r="AE8" s="183"/>
+      <c r="AD8" s="139"/>
+      <c r="AE8" s="140"/>
       <c r="AF8" s="31"/>
       <c r="AG8" s="29"/>
       <c r="AH8" s="30"/>
@@ -2843,73 +2994,73 @@
       <c r="BD8" s="16"/>
     </row>
     <row r="9" spans="1:56" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="185"/>
-      <c r="C9" s="186"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="143"/>
       <c r="D9" s="10"/>
       <c r="E9" s="3"/>
       <c r="F9" s="12"/>
       <c r="G9" s="3"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="124"/>
-      <c r="P9" s="124"/>
-      <c r="Q9" s="124"/>
-      <c r="R9" s="124"/>
-      <c r="S9" s="124"/>
-      <c r="T9" s="124"/>
-      <c r="U9" s="124"/>
-      <c r="V9" s="124"/>
-      <c r="W9" s="124"/>
-      <c r="X9" s="124"/>
-      <c r="Y9" s="124"/>
-      <c r="Z9" s="124"/>
-      <c r="AA9" s="124"/>
-      <c r="AB9" s="125"/>
-      <c r="AC9" s="184" t="str">
+      <c r="I9" s="205"/>
+      <c r="J9" s="186"/>
+      <c r="K9" s="186"/>
+      <c r="L9" s="186"/>
+      <c r="M9" s="186"/>
+      <c r="N9" s="186"/>
+      <c r="O9" s="186"/>
+      <c r="P9" s="186"/>
+      <c r="Q9" s="186"/>
+      <c r="R9" s="186"/>
+      <c r="S9" s="186"/>
+      <c r="T9" s="186"/>
+      <c r="U9" s="186"/>
+      <c r="V9" s="186"/>
+      <c r="W9" s="186"/>
+      <c r="X9" s="186"/>
+      <c r="Y9" s="186"/>
+      <c r="Z9" s="186"/>
+      <c r="AA9" s="186"/>
+      <c r="AB9" s="187"/>
+      <c r="AC9" s="141" t="str">
         <f t="shared" si="0"/>
         <v>Fachbericht</v>
       </c>
-      <c r="AD9" s="185"/>
-      <c r="AE9" s="186"/>
-      <c r="AF9" s="126"/>
-      <c r="AG9" s="124"/>
-      <c r="AH9" s="124"/>
-      <c r="AI9" s="124"/>
-      <c r="AJ9" s="124"/>
-      <c r="AK9" s="124"/>
-      <c r="AL9" s="124"/>
-      <c r="AM9" s="124"/>
-      <c r="AN9" s="124"/>
-      <c r="AO9" s="124"/>
-      <c r="AP9" s="124"/>
-      <c r="AQ9" s="124"/>
-      <c r="AR9" s="124"/>
-      <c r="AS9" s="124"/>
-      <c r="AT9" s="124"/>
-      <c r="AU9" s="124"/>
-      <c r="AV9" s="124"/>
-      <c r="AW9" s="124"/>
-      <c r="AX9" s="124"/>
-      <c r="AY9" s="124"/>
-      <c r="AZ9" s="124"/>
-      <c r="BA9" s="124"/>
-      <c r="BB9" s="125"/>
+      <c r="AD9" s="142"/>
+      <c r="AE9" s="143"/>
+      <c r="AF9" s="185"/>
+      <c r="AG9" s="186"/>
+      <c r="AH9" s="186"/>
+      <c r="AI9" s="186"/>
+      <c r="AJ9" s="186"/>
+      <c r="AK9" s="186"/>
+      <c r="AL9" s="186"/>
+      <c r="AM9" s="186"/>
+      <c r="AN9" s="186"/>
+      <c r="AO9" s="186"/>
+      <c r="AP9" s="186"/>
+      <c r="AQ9" s="186"/>
+      <c r="AR9" s="186"/>
+      <c r="AS9" s="186"/>
+      <c r="AT9" s="186"/>
+      <c r="AU9" s="186"/>
+      <c r="AV9" s="186"/>
+      <c r="AW9" s="186"/>
+      <c r="AX9" s="186"/>
+      <c r="AY9" s="186"/>
+      <c r="AZ9" s="186"/>
+      <c r="BA9" s="186"/>
+      <c r="BB9" s="187"/>
       <c r="BD9" s="16"/>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="131"/>
-      <c r="C10" s="132"/>
+      <c r="B10" s="192"/>
+      <c r="C10" s="193"/>
       <c r="D10" s="11"/>
       <c r="E10" s="7"/>
       <c r="F10" s="13"/>
@@ -2935,12 +3086,12 @@
       <c r="Z10" s="12"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="14"/>
-      <c r="AC10" s="130" t="str">
+      <c r="AC10" s="191" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">   • Disposition</v>
       </c>
-      <c r="AD10" s="131"/>
-      <c r="AE10" s="132"/>
+      <c r="AD10" s="192"/>
+      <c r="AE10" s="193"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="3"/>
@@ -2967,11 +3118,11 @@
       <c r="BD10" s="16"/>
     </row>
     <row r="11" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="187" t="s">
+      <c r="A11" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="188"/>
-      <c r="C11" s="189"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="199"/>
       <c r="D11" s="33"/>
       <c r="E11" s="30"/>
       <c r="F11" s="29"/>
@@ -2997,12 +3148,12 @@
       <c r="Z11" s="26"/>
       <c r="AA11" s="25"/>
       <c r="AB11" s="34"/>
-      <c r="AC11" s="133" t="str">
+      <c r="AC11" s="194" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">   • Korrektur</v>
       </c>
-      <c r="AD11" s="134"/>
-      <c r="AE11" s="135"/>
+      <c r="AD11" s="195"/>
+      <c r="AE11" s="196"/>
       <c r="AF11" s="36"/>
       <c r="AG11" s="26"/>
       <c r="AH11" s="25"/>
@@ -3023,17 +3174,17 @@
       <c r="AW11" s="74"/>
       <c r="AX11" s="25"/>
       <c r="AY11" s="37"/>
-      <c r="AZ11" s="127"/>
-      <c r="BA11" s="128"/>
-      <c r="BB11" s="129"/>
+      <c r="AZ11" s="188"/>
+      <c r="BA11" s="189"/>
+      <c r="BB11" s="190"/>
       <c r="BD11" s="16"/>
     </row>
     <row r="12" spans="1:56" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="130"/>
       <c r="D12" s="10"/>
       <c r="E12" s="3"/>
       <c r="F12" s="12"/>
@@ -3059,12 +3210,12 @@
       <c r="Z12" s="12"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="14"/>
-      <c r="AC12" s="117" t="str">
+      <c r="AC12" s="128" t="str">
         <f t="shared" si="0"/>
         <v>Hardware</v>
       </c>
-      <c r="AD12" s="118"/>
-      <c r="AE12" s="119"/>
+      <c r="AD12" s="129"/>
+      <c r="AE12" s="130"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="12"/>
       <c r="AH12" s="3"/>
@@ -3091,11 +3242,11 @@
       <c r="BD12" s="16"/>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="122"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
       <c r="D13" s="11"/>
       <c r="E13" s="7"/>
       <c r="F13" s="13"/>
@@ -3118,19 +3269,19 @@
       <c r="W13" s="76"/>
       <c r="X13" s="77"/>
       <c r="Y13" s="76"/>
-      <c r="Z13" s="109"/>
-      <c r="AA13" s="109"/>
-      <c r="AB13" s="111"/>
-      <c r="AC13" s="120" t="str">
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="117" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">   • Speisung</v>
       </c>
-      <c r="AD13" s="121"/>
-      <c r="AE13" s="122"/>
-      <c r="AF13" s="193"/>
-      <c r="AG13" s="109"/>
-      <c r="AH13" s="109"/>
-      <c r="AI13" s="110"/>
+      <c r="AD13" s="118"/>
+      <c r="AE13" s="119"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="13"/>
       <c r="AJ13" s="7"/>
       <c r="AK13" s="13"/>
       <c r="AL13" s="7"/>
@@ -3153,11 +3304,11 @@
       <c r="BD13" s="16"/>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="122"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="11"/>
       <c r="E14" s="7"/>
       <c r="F14" s="13"/>
@@ -3180,15 +3331,15 @@
       <c r="W14" s="76"/>
       <c r="X14" s="77"/>
       <c r="Y14" s="78"/>
-      <c r="Z14" s="109"/>
-      <c r="AA14" s="109"/>
-      <c r="AB14" s="111"/>
-      <c r="AC14" s="120" t="str">
+      <c r="Z14" s="112"/>
+      <c r="AA14" s="112"/>
+      <c r="AB14" s="114"/>
+      <c r="AC14" s="117" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">         ○ Akku</v>
       </c>
-      <c r="AD14" s="121"/>
-      <c r="AE14" s="122"/>
+      <c r="AD14" s="118"/>
+      <c r="AE14" s="119"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="13"/>
       <c r="AH14" s="7"/>
@@ -3215,11 +3366,11 @@
       <c r="BD14" s="16"/>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="122"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="119"/>
       <c r="D15" s="11"/>
       <c r="E15" s="7"/>
       <c r="F15" s="13"/>
@@ -3245,15 +3396,15 @@
       <c r="Z15" s="68"/>
       <c r="AA15" s="69"/>
       <c r="AB15" s="67"/>
-      <c r="AC15" s="120" t="str">
+      <c r="AC15" s="117" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">         ○ Photovoltaik</v>
       </c>
-      <c r="AD15" s="121"/>
-      <c r="AE15" s="122"/>
-      <c r="AF15" s="193"/>
-      <c r="AG15" s="109"/>
-      <c r="AH15" s="110"/>
+      <c r="AD15" s="118"/>
+      <c r="AE15" s="119"/>
+      <c r="AF15" s="111"/>
+      <c r="AG15" s="112"/>
+      <c r="AH15" s="113"/>
       <c r="AI15" s="13"/>
       <c r="AJ15" s="7"/>
       <c r="AK15" s="13"/>
@@ -3277,25 +3428,25 @@
       <c r="BD15" s="16"/>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A16" s="120" t="s">
+      <c r="A16" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="219"/>
       <c r="E16" s="7"/>
       <c r="F16" s="13"/>
       <c r="G16" s="7"/>
       <c r="H16" s="13"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="110"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="7"/>
       <c r="R16" s="13"/>
       <c r="S16" s="7"/>
       <c r="T16" s="13"/>
@@ -3307,16 +3458,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="15"/>
-      <c r="AC16" s="120" t="str">
+      <c r="AC16" s="117" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">   • Sensoren</v>
       </c>
-      <c r="AD16" s="121"/>
-      <c r="AE16" s="122"/>
+      <c r="AD16" s="118"/>
+      <c r="AE16" s="119"/>
       <c r="AF16" s="6"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="13"/>
+      <c r="AG16" s="207"/>
+      <c r="AH16" s="206"/>
+      <c r="AI16" s="207"/>
       <c r="AJ16" s="7"/>
       <c r="AK16" s="13"/>
       <c r="AL16" s="7"/>
@@ -3338,390 +3489,384 @@
       <c r="BB16" s="8"/>
       <c r="BD16" s="16"/>
     </row>
-    <row r="17" spans="1:56" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="163"/>
-      <c r="C17" s="164"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="196"/>
-      <c r="K17" s="197"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="103"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="73"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="162" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">   • Datenspeicherung</v>
-      </c>
-      <c r="AD17" s="163"/>
-      <c r="AE17" s="164"/>
-      <c r="AF17" s="31"/>
-      <c r="AG17" s="29"/>
-      <c r="AH17" s="30"/>
-      <c r="AI17" s="29"/>
-      <c r="AJ17" s="30"/>
-      <c r="AK17" s="29"/>
-      <c r="AL17" s="30"/>
-      <c r="AM17" s="29"/>
-      <c r="AN17" s="61"/>
-      <c r="AO17" s="29"/>
-      <c r="AP17" s="30"/>
-      <c r="AQ17" s="29"/>
-      <c r="AR17" s="30"/>
-      <c r="AS17" s="97"/>
-      <c r="AT17" s="72"/>
-      <c r="AU17" s="73"/>
-      <c r="AV17" s="89"/>
-      <c r="AW17" s="72"/>
-      <c r="AX17" s="30"/>
-      <c r="AY17" s="29"/>
-      <c r="AZ17" s="30"/>
-      <c r="BA17" s="29"/>
-      <c r="BB17" s="32"/>
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A17" s="218"/>
+      <c r="B17" s="218" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="221"/>
+      <c r="D17" s="217"/>
+      <c r="E17" s="206"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="206"/>
+      <c r="H17" s="207"/>
+      <c r="I17" s="206"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="200"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="113"/>
+      <c r="R17" s="207"/>
+      <c r="S17" s="206"/>
+      <c r="T17" s="207"/>
+      <c r="U17" s="208"/>
+      <c r="V17" s="209"/>
+      <c r="W17" s="210"/>
+      <c r="X17" s="210"/>
+      <c r="Y17" s="210"/>
+      <c r="Z17" s="207"/>
+      <c r="AA17" s="206"/>
+      <c r="AB17" s="211"/>
+      <c r="AC17" s="218"/>
+      <c r="AD17" s="218" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE17" s="221"/>
+      <c r="AF17" s="212"/>
+      <c r="AG17" s="207"/>
+      <c r="AH17" s="206"/>
+      <c r="AI17" s="207"/>
+      <c r="AJ17" s="206"/>
+      <c r="AK17" s="207"/>
+      <c r="AL17" s="206"/>
+      <c r="AM17" s="207"/>
+      <c r="AN17" s="213"/>
+      <c r="AO17" s="207"/>
+      <c r="AP17" s="206"/>
+      <c r="AQ17" s="207"/>
+      <c r="AR17" s="206"/>
+      <c r="AS17" s="214"/>
+      <c r="AT17" s="209"/>
+      <c r="AU17" s="210"/>
+      <c r="AV17" s="215"/>
+      <c r="AW17" s="209"/>
+      <c r="AX17" s="206"/>
+      <c r="AY17" s="207"/>
+      <c r="AZ17" s="206"/>
+      <c r="BA17" s="207"/>
+      <c r="BB17" s="216"/>
       <c r="BD17" s="16"/>
     </row>
-    <row r="18" spans="1:56" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="165" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="166"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="102"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="70"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="165" t="str">
-        <f t="shared" si="0"/>
-        <v>Software</v>
-      </c>
-      <c r="AD18" s="166"/>
-      <c r="AE18" s="167"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="12"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="12"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="12"/>
-      <c r="AN18" s="60"/>
-      <c r="AO18" s="12"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="12"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="100"/>
-      <c r="AT18" s="71"/>
-      <c r="AU18" s="70"/>
-      <c r="AV18" s="88"/>
-      <c r="AW18" s="71"/>
-      <c r="AX18" s="3"/>
-      <c r="AY18" s="12"/>
-      <c r="AZ18" s="3"/>
-      <c r="BA18" s="12"/>
-      <c r="BB18" s="4"/>
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A18" s="218"/>
+      <c r="B18" s="218" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="221"/>
+      <c r="D18" s="217"/>
+      <c r="E18" s="206"/>
+      <c r="F18" s="207"/>
+      <c r="G18" s="206"/>
+      <c r="H18" s="207"/>
+      <c r="I18" s="206"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="222"/>
+      <c r="R18" s="207"/>
+      <c r="S18" s="206"/>
+      <c r="T18" s="207"/>
+      <c r="U18" s="208"/>
+      <c r="V18" s="209"/>
+      <c r="W18" s="210"/>
+      <c r="X18" s="210"/>
+      <c r="Y18" s="210"/>
+      <c r="Z18" s="207"/>
+      <c r="AA18" s="206"/>
+      <c r="AB18" s="211"/>
+      <c r="AC18" s="218"/>
+      <c r="AD18" s="218" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE18" s="221"/>
+      <c r="AF18" s="212"/>
+      <c r="AG18" s="207"/>
+      <c r="AH18" s="206"/>
+      <c r="AI18" s="207"/>
+      <c r="AJ18" s="206"/>
+      <c r="AK18" s="207"/>
+      <c r="AL18" s="206"/>
+      <c r="AM18" s="207"/>
+      <c r="AN18" s="213"/>
+      <c r="AO18" s="207"/>
+      <c r="AP18" s="206"/>
+      <c r="AQ18" s="207"/>
+      <c r="AR18" s="206"/>
+      <c r="AS18" s="214"/>
+      <c r="AT18" s="209"/>
+      <c r="AU18" s="210"/>
+      <c r="AV18" s="215"/>
+      <c r="AW18" s="209"/>
+      <c r="AX18" s="206"/>
+      <c r="AY18" s="207"/>
+      <c r="AZ18" s="206"/>
+      <c r="BA18" s="207"/>
+      <c r="BB18" s="216"/>
       <c r="BD18" s="16"/>
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A19" s="168" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="169"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="105"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="168" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">   • Datenübertragung</v>
-      </c>
-      <c r="AD19" s="169"/>
-      <c r="AE19" s="170"/>
-      <c r="AF19" s="198"/>
-      <c r="AG19" s="199"/>
-      <c r="AH19" s="199"/>
-      <c r="AI19" s="199"/>
-      <c r="AJ19" s="113"/>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="7"/>
-      <c r="AM19" s="13"/>
-      <c r="AN19" s="63"/>
-      <c r="AO19" s="13"/>
-      <c r="AP19" s="7"/>
-      <c r="AQ19" s="13"/>
-      <c r="AR19" s="7"/>
-      <c r="AS19" s="95"/>
-      <c r="AT19" s="79"/>
-      <c r="AU19" s="78"/>
-      <c r="AV19" s="91"/>
-      <c r="AW19" s="79"/>
-      <c r="AX19" s="7"/>
-      <c r="AY19" s="13"/>
-      <c r="AZ19" s="7"/>
-      <c r="BA19" s="13"/>
-      <c r="BB19" s="8"/>
+      <c r="A19" s="218"/>
+      <c r="B19" s="218" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="221"/>
+      <c r="D19" s="217"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="207"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="207"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="113"/>
+      <c r="S19" s="206"/>
+      <c r="T19" s="207"/>
+      <c r="U19" s="208"/>
+      <c r="V19" s="209"/>
+      <c r="W19" s="210"/>
+      <c r="X19" s="210"/>
+      <c r="Y19" s="210"/>
+      <c r="Z19" s="207"/>
+      <c r="AA19" s="206"/>
+      <c r="AB19" s="211"/>
+      <c r="AC19" s="218"/>
+      <c r="AD19" s="218" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE19" s="221"/>
+      <c r="AF19" s="212"/>
+      <c r="AG19" s="207"/>
+      <c r="AH19" s="206"/>
+      <c r="AI19" s="207"/>
+      <c r="AJ19" s="206"/>
+      <c r="AK19" s="207"/>
+      <c r="AL19" s="206"/>
+      <c r="AM19" s="207"/>
+      <c r="AN19" s="213"/>
+      <c r="AO19" s="207"/>
+      <c r="AP19" s="206"/>
+      <c r="AQ19" s="207"/>
+      <c r="AR19" s="206"/>
+      <c r="AS19" s="214"/>
+      <c r="AT19" s="209"/>
+      <c r="AU19" s="210"/>
+      <c r="AV19" s="215"/>
+      <c r="AW19" s="209"/>
+      <c r="AX19" s="206"/>
+      <c r="AY19" s="207"/>
+      <c r="AZ19" s="206"/>
+      <c r="BA19" s="207"/>
+      <c r="BB19" s="216"/>
       <c r="BD19" s="16"/>
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A20" s="168" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="169"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="7"/>
+      <c r="A20" s="218"/>
+      <c r="B20" s="218" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="221"/>
+      <c r="D20" s="217"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="207"/>
+      <c r="G20" s="206"/>
+      <c r="H20" s="207"/>
+      <c r="I20" s="206"/>
       <c r="J20" s="15"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="113"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="63"/>
       <c r="N20" s="13"/>
       <c r="O20" s="7"/>
       <c r="P20" s="13"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="105"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="39"/>
-      <c r="AC20" s="168" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">   • Datenspeicherung</v>
-      </c>
-      <c r="AD20" s="169"/>
-      <c r="AE20" s="170"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="13"/>
-      <c r="AJ20" s="7"/>
-      <c r="AK20" s="13"/>
-      <c r="AL20" s="7"/>
-      <c r="AM20" s="13"/>
-      <c r="AN20" s="63"/>
-      <c r="AO20" s="13"/>
-      <c r="AP20" s="7"/>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="7"/>
-      <c r="AS20" s="95"/>
-      <c r="AT20" s="79"/>
-      <c r="AU20" s="78"/>
-      <c r="AV20" s="91"/>
-      <c r="AW20" s="79"/>
-      <c r="AX20" s="7"/>
-      <c r="AY20" s="13"/>
-      <c r="AZ20" s="7"/>
-      <c r="BA20" s="13"/>
-      <c r="BB20" s="8"/>
+      <c r="Q20" s="200"/>
+      <c r="R20" s="113"/>
+      <c r="S20" s="206"/>
+      <c r="T20" s="207"/>
+      <c r="U20" s="208"/>
+      <c r="V20" s="209"/>
+      <c r="W20" s="210"/>
+      <c r="X20" s="210"/>
+      <c r="Y20" s="210"/>
+      <c r="Z20" s="207"/>
+      <c r="AA20" s="206"/>
+      <c r="AB20" s="211"/>
+      <c r="AC20" s="218"/>
+      <c r="AD20" s="218" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE20" s="221"/>
+      <c r="AF20" s="212"/>
+      <c r="AG20" s="207"/>
+      <c r="AH20" s="206"/>
+      <c r="AI20" s="207"/>
+      <c r="AJ20" s="206"/>
+      <c r="AK20" s="207"/>
+      <c r="AL20" s="206"/>
+      <c r="AM20" s="207"/>
+      <c r="AN20" s="213"/>
+      <c r="AO20" s="207"/>
+      <c r="AP20" s="206"/>
+      <c r="AQ20" s="207"/>
+      <c r="AR20" s="206"/>
+      <c r="AS20" s="214"/>
+      <c r="AT20" s="209"/>
+      <c r="AU20" s="210"/>
+      <c r="AV20" s="215"/>
+      <c r="AW20" s="209"/>
+      <c r="AX20" s="206"/>
+      <c r="AY20" s="207"/>
+      <c r="AZ20" s="206"/>
+      <c r="BA20" s="207"/>
+      <c r="BB20" s="216"/>
       <c r="BD20" s="16"/>
     </row>
-    <row r="21" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="171" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="172"/>
-      <c r="C21" s="173"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="115"/>
-      <c r="P21" s="115"/>
-      <c r="Q21" s="115"/>
-      <c r="R21" s="115"/>
-      <c r="S21" s="116"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="103"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="85"/>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="73"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="171" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">   • Firmware f. Sensoren</v>
-      </c>
-      <c r="AD21" s="172"/>
-      <c r="AE21" s="173"/>
-      <c r="AF21" s="31"/>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="29"/>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="29"/>
-      <c r="AL21" s="30"/>
-      <c r="AM21" s="29"/>
-      <c r="AN21" s="61"/>
-      <c r="AO21" s="29"/>
-      <c r="AP21" s="30"/>
-      <c r="AQ21" s="29"/>
-      <c r="AR21" s="30"/>
-      <c r="AS21" s="97"/>
-      <c r="AT21" s="72"/>
-      <c r="AU21" s="73"/>
-      <c r="AV21" s="89"/>
-      <c r="AW21" s="72"/>
-      <c r="AX21" s="30"/>
-      <c r="AY21" s="29"/>
-      <c r="AZ21" s="30"/>
-      <c r="BA21" s="29"/>
-      <c r="BB21" s="32"/>
-      <c r="BD21" s="17"/>
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A21" s="218"/>
+      <c r="B21" s="218" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="221"/>
+      <c r="D21" s="217"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="207"/>
+      <c r="G21" s="206"/>
+      <c r="H21" s="207"/>
+      <c r="I21" s="206"/>
+      <c r="J21" s="200"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="112"/>
+      <c r="S21" s="113"/>
+      <c r="T21" s="207"/>
+      <c r="U21" s="208"/>
+      <c r="V21" s="209"/>
+      <c r="W21" s="210"/>
+      <c r="X21" s="210"/>
+      <c r="Y21" s="210"/>
+      <c r="Z21" s="207"/>
+      <c r="AA21" s="206"/>
+      <c r="AB21" s="211"/>
+      <c r="AC21" s="218"/>
+      <c r="AD21" s="218" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE21" s="221"/>
+      <c r="AF21" s="212"/>
+      <c r="AG21" s="207"/>
+      <c r="AH21" s="206"/>
+      <c r="AI21" s="207"/>
+      <c r="AJ21" s="206"/>
+      <c r="AK21" s="207"/>
+      <c r="AL21" s="206"/>
+      <c r="AM21" s="207"/>
+      <c r="AN21" s="213"/>
+      <c r="AO21" s="207"/>
+      <c r="AP21" s="206"/>
+      <c r="AQ21" s="207"/>
+      <c r="AR21" s="206"/>
+      <c r="AS21" s="214"/>
+      <c r="AT21" s="209"/>
+      <c r="AU21" s="210"/>
+      <c r="AV21" s="215"/>
+      <c r="AW21" s="209"/>
+      <c r="AX21" s="206"/>
+      <c r="AY21" s="207"/>
+      <c r="AZ21" s="206"/>
+      <c r="BA21" s="207"/>
+      <c r="BB21" s="216"/>
+      <c r="BD21" s="16"/>
     </row>
-    <row r="22" spans="1:56" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="190" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="191"/>
-      <c r="C22" s="192"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="102"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="87"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="153" t="str">
-        <f t="shared" si="0"/>
-        <v>Gehäuse</v>
-      </c>
-      <c r="AD22" s="154"/>
-      <c r="AE22" s="155"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="12"/>
-      <c r="AN22" s="60"/>
-      <c r="AO22" s="12"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="12"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="100"/>
-      <c r="AT22" s="71"/>
-      <c r="AU22" s="70"/>
-      <c r="AV22" s="88"/>
-      <c r="AW22" s="71"/>
-      <c r="AX22" s="3"/>
-      <c r="AY22" s="12"/>
-      <c r="AZ22" s="3"/>
-      <c r="BA22" s="12"/>
-      <c r="BB22" s="4"/>
-      <c r="BD22" s="38"/>
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A22" s="218"/>
+      <c r="B22" s="218" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="221"/>
+      <c r="D22" s="217"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="207"/>
+      <c r="G22" s="206"/>
+      <c r="H22" s="207"/>
+      <c r="I22" s="206"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="200"/>
+      <c r="S22" s="113"/>
+      <c r="T22" s="207"/>
+      <c r="U22" s="208"/>
+      <c r="V22" s="209"/>
+      <c r="W22" s="210"/>
+      <c r="X22" s="210"/>
+      <c r="Y22" s="210"/>
+      <c r="Z22" s="207"/>
+      <c r="AA22" s="206"/>
+      <c r="AB22" s="211"/>
+      <c r="AC22" s="218"/>
+      <c r="AD22" s="218" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE22" s="221"/>
+      <c r="AF22" s="212"/>
+      <c r="AG22" s="207"/>
+      <c r="AH22" s="206"/>
+      <c r="AI22" s="207"/>
+      <c r="AJ22" s="206"/>
+      <c r="AK22" s="207"/>
+      <c r="AL22" s="206"/>
+      <c r="AM22" s="207"/>
+      <c r="AN22" s="213"/>
+      <c r="AO22" s="207"/>
+      <c r="AP22" s="206"/>
+      <c r="AQ22" s="207"/>
+      <c r="AR22" s="206"/>
+      <c r="AS22" s="214"/>
+      <c r="AT22" s="209"/>
+      <c r="AU22" s="210"/>
+      <c r="AV22" s="215"/>
+      <c r="AW22" s="209"/>
+      <c r="AX22" s="206"/>
+      <c r="AY22" s="207"/>
+      <c r="AZ22" s="206"/>
+      <c r="BA22" s="207"/>
+      <c r="BB22" s="216"/>
+      <c r="BD22" s="16"/>
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A23" s="156" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="157"/>
-      <c r="C23" s="158"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="7"/>
+      <c r="A23" s="218"/>
+      <c r="B23" s="218" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="221"/>
+      <c r="D23" s="217"/>
+      <c r="E23" s="206"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="206"/>
+      <c r="H23" s="207"/>
+      <c r="I23" s="206"/>
       <c r="J23" s="15"/>
       <c r="K23" s="9"/>
       <c r="L23" s="13"/>
@@ -3730,276 +3875,825 @@
       <c r="O23" s="7"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="105"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="70"/>
-      <c r="X23" s="78"/>
-      <c r="Y23" s="78"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="156" t="str">
+      <c r="R23" s="207"/>
+      <c r="S23" s="206"/>
+      <c r="T23" s="207"/>
+      <c r="U23" s="208"/>
+      <c r="V23" s="209"/>
+      <c r="W23" s="210"/>
+      <c r="X23" s="210"/>
+      <c r="Y23" s="210"/>
+      <c r="Z23" s="207"/>
+      <c r="AA23" s="206"/>
+      <c r="AB23" s="211"/>
+      <c r="AC23" s="218"/>
+      <c r="AD23" s="218" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE23" s="221"/>
+      <c r="AF23" s="212"/>
+      <c r="AG23" s="200"/>
+      <c r="AH23" s="112"/>
+      <c r="AI23" s="113"/>
+      <c r="AJ23" s="206"/>
+      <c r="AK23" s="207"/>
+      <c r="AL23" s="206"/>
+      <c r="AM23" s="207"/>
+      <c r="AN23" s="213"/>
+      <c r="AO23" s="207"/>
+      <c r="AP23" s="206"/>
+      <c r="AQ23" s="207"/>
+      <c r="AR23" s="206"/>
+      <c r="AS23" s="214"/>
+      <c r="AT23" s="209"/>
+      <c r="AU23" s="210"/>
+      <c r="AV23" s="215"/>
+      <c r="AW23" s="209"/>
+      <c r="AX23" s="206"/>
+      <c r="AY23" s="207"/>
+      <c r="AZ23" s="206"/>
+      <c r="BA23" s="207"/>
+      <c r="BB23" s="216"/>
+      <c r="BD23" s="16"/>
+    </row>
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A24" s="218"/>
+      <c r="B24" s="218" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="221"/>
+      <c r="D24" s="217"/>
+      <c r="E24" s="206"/>
+      <c r="F24" s="207"/>
+      <c r="G24" s="206"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="206"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="207"/>
+      <c r="S24" s="206"/>
+      <c r="T24" s="207"/>
+      <c r="U24" s="208"/>
+      <c r="V24" s="209"/>
+      <c r="W24" s="210"/>
+      <c r="X24" s="210"/>
+      <c r="Y24" s="210"/>
+      <c r="Z24" s="207"/>
+      <c r="AA24" s="206"/>
+      <c r="AB24" s="211"/>
+      <c r="AC24" s="218"/>
+      <c r="AD24" s="218" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE24" s="221"/>
+      <c r="AF24" s="212"/>
+      <c r="AG24" s="207"/>
+      <c r="AH24" s="207"/>
+      <c r="AI24" s="223"/>
+      <c r="AJ24" s="206"/>
+      <c r="AK24" s="207"/>
+      <c r="AL24" s="206"/>
+      <c r="AM24" s="207"/>
+      <c r="AN24" s="213"/>
+      <c r="AO24" s="207"/>
+      <c r="AP24" s="206"/>
+      <c r="AQ24" s="207"/>
+      <c r="AR24" s="206"/>
+      <c r="AS24" s="214"/>
+      <c r="AT24" s="209"/>
+      <c r="AU24" s="210"/>
+      <c r="AV24" s="215"/>
+      <c r="AW24" s="209"/>
+      <c r="AX24" s="206"/>
+      <c r="AY24" s="207"/>
+      <c r="AZ24" s="206"/>
+      <c r="BA24" s="207"/>
+      <c r="BB24" s="216"/>
+      <c r="BD24" s="16"/>
+    </row>
+    <row r="25" spans="1:56" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="157"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="220"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="121"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="103"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="156" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">   • Datenspeicherung</v>
+      </c>
+      <c r="AD25" s="157"/>
+      <c r="AE25" s="158"/>
+      <c r="AF25" s="31"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="30"/>
+      <c r="AI25" s="29"/>
+      <c r="AJ25" s="30"/>
+      <c r="AK25" s="29"/>
+      <c r="AL25" s="30"/>
+      <c r="AM25" s="29"/>
+      <c r="AN25" s="61"/>
+      <c r="AO25" s="29"/>
+      <c r="AP25" s="30"/>
+      <c r="AQ25" s="29"/>
+      <c r="AR25" s="30"/>
+      <c r="AS25" s="97"/>
+      <c r="AT25" s="72"/>
+      <c r="AU25" s="73"/>
+      <c r="AV25" s="89"/>
+      <c r="AW25" s="72"/>
+      <c r="AX25" s="30"/>
+      <c r="AY25" s="29"/>
+      <c r="AZ25" s="30"/>
+      <c r="BA25" s="29"/>
+      <c r="BB25" s="32"/>
+      <c r="BD25" s="16"/>
+    </row>
+    <row r="26" spans="1:56" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="159" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="160"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="102"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="70"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="70"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="159" t="str">
+        <f t="shared" si="0"/>
+        <v>Software</v>
+      </c>
+      <c r="AD26" s="160"/>
+      <c r="AE26" s="161"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="60"/>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="100"/>
+      <c r="AT26" s="71"/>
+      <c r="AU26" s="70"/>
+      <c r="AV26" s="88"/>
+      <c r="AW26" s="71"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="12"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="12"/>
+      <c r="BB26" s="4"/>
+      <c r="BD26" s="16"/>
+    </row>
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A27" s="162" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="163"/>
+      <c r="C27" s="164"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="105"/>
+      <c r="V27" s="79"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="162" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">   • Datenübertragung</v>
+      </c>
+      <c r="AD27" s="163"/>
+      <c r="AE27" s="164"/>
+      <c r="AF27" s="122"/>
+      <c r="AG27" s="123"/>
+      <c r="AH27" s="123"/>
+      <c r="AI27" s="123"/>
+      <c r="AJ27" s="124"/>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="13"/>
+      <c r="AN27" s="63"/>
+      <c r="AO27" s="13"/>
+      <c r="AP27" s="7"/>
+      <c r="AQ27" s="13"/>
+      <c r="AR27" s="7"/>
+      <c r="AS27" s="95"/>
+      <c r="AT27" s="79"/>
+      <c r="AU27" s="78"/>
+      <c r="AV27" s="91"/>
+      <c r="AW27" s="79"/>
+      <c r="AX27" s="7"/>
+      <c r="AY27" s="13"/>
+      <c r="AZ27" s="7"/>
+      <c r="BA27" s="13"/>
+      <c r="BB27" s="8"/>
+      <c r="BD27" s="16"/>
+    </row>
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A28" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="163"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="201"/>
+      <c r="M28" s="124"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="105"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="162" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">   • Datenspeicherung</v>
+      </c>
+      <c r="AD28" s="163"/>
+      <c r="AE28" s="164"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="7"/>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="7"/>
+      <c r="AM28" s="13"/>
+      <c r="AN28" s="63"/>
+      <c r="AO28" s="13"/>
+      <c r="AP28" s="7"/>
+      <c r="AQ28" s="13"/>
+      <c r="AR28" s="7"/>
+      <c r="AS28" s="95"/>
+      <c r="AT28" s="79"/>
+      <c r="AU28" s="78"/>
+      <c r="AV28" s="91"/>
+      <c r="AW28" s="79"/>
+      <c r="AX28" s="7"/>
+      <c r="AY28" s="13"/>
+      <c r="AZ28" s="7"/>
+      <c r="BA28" s="13"/>
+      <c r="BB28" s="8"/>
+      <c r="BD28" s="16"/>
+    </row>
+    <row r="29" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="165" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="166"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="202"/>
+      <c r="O29" s="203"/>
+      <c r="P29" s="203"/>
+      <c r="Q29" s="203"/>
+      <c r="R29" s="203"/>
+      <c r="S29" s="204"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="103"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="85"/>
+      <c r="X29" s="73"/>
+      <c r="Y29" s="73"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="165" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">   • Firmware f. Sensoren</v>
+      </c>
+      <c r="AD29" s="166"/>
+      <c r="AE29" s="167"/>
+      <c r="AF29" s="31"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="30"/>
+      <c r="AI29" s="29"/>
+      <c r="AJ29" s="30"/>
+      <c r="AK29" s="29"/>
+      <c r="AL29" s="30"/>
+      <c r="AM29" s="29"/>
+      <c r="AN29" s="61"/>
+      <c r="AO29" s="29"/>
+      <c r="AP29" s="30"/>
+      <c r="AQ29" s="29"/>
+      <c r="AR29" s="30"/>
+      <c r="AS29" s="97"/>
+      <c r="AT29" s="72"/>
+      <c r="AU29" s="73"/>
+      <c r="AV29" s="89"/>
+      <c r="AW29" s="72"/>
+      <c r="AX29" s="30"/>
+      <c r="AY29" s="29"/>
+      <c r="AZ29" s="30"/>
+      <c r="BA29" s="29"/>
+      <c r="BB29" s="32"/>
+      <c r="BD29" s="17"/>
+    </row>
+    <row r="30" spans="1:56" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="147" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="148"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="102"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="87"/>
+      <c r="X30" s="70"/>
+      <c r="Y30" s="70"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="182" t="str">
+        <f t="shared" si="0"/>
+        <v>Gehäuse</v>
+      </c>
+      <c r="AD30" s="183"/>
+      <c r="AE30" s="184"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="60"/>
+      <c r="AO30" s="12"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="12"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="100"/>
+      <c r="AT30" s="71"/>
+      <c r="AU30" s="70"/>
+      <c r="AV30" s="88"/>
+      <c r="AW30" s="71"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="12"/>
+      <c r="AZ30" s="3"/>
+      <c r="BA30" s="12"/>
+      <c r="BB30" s="4"/>
+      <c r="BD30" s="38"/>
+    </row>
+    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A31" s="150" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="151"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="105"/>
+      <c r="V31" s="79"/>
+      <c r="W31" s="70"/>
+      <c r="X31" s="78"/>
+      <c r="Y31" s="78"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="150" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">   • Design</v>
       </c>
-      <c r="AD23" s="157"/>
-      <c r="AE23" s="158"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="13"/>
-      <c r="AJ23" s="7"/>
-      <c r="AK23" s="13"/>
-      <c r="AL23" s="7"/>
-      <c r="AM23" s="13"/>
-      <c r="AN23" s="63"/>
-      <c r="AO23" s="200"/>
-      <c r="AP23" s="201"/>
-      <c r="AQ23" s="201"/>
-      <c r="AR23" s="202"/>
-      <c r="AS23" s="95"/>
-      <c r="AT23" s="79"/>
-      <c r="AU23" s="78"/>
-      <c r="AV23" s="91"/>
-      <c r="AW23" s="79"/>
-      <c r="AX23" s="7"/>
-      <c r="AY23" s="13"/>
-      <c r="AZ23" s="7"/>
-      <c r="BA23" s="13"/>
-      <c r="BB23" s="8"/>
-      <c r="BD23" s="38"/>
+      <c r="AD31" s="151"/>
+      <c r="AE31" s="152"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="13"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="13"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="13"/>
+      <c r="AN31" s="63"/>
+      <c r="AO31" s="125"/>
+      <c r="AP31" s="126"/>
+      <c r="AQ31" s="126"/>
+      <c r="AR31" s="127"/>
+      <c r="AS31" s="95"/>
+      <c r="AT31" s="79"/>
+      <c r="AU31" s="78"/>
+      <c r="AV31" s="91"/>
+      <c r="AW31" s="79"/>
+      <c r="AX31" s="7"/>
+      <c r="AY31" s="13"/>
+      <c r="AZ31" s="7"/>
+      <c r="BA31" s="13"/>
+      <c r="BB31" s="8"/>
+      <c r="BD31" s="38"/>
     </row>
-    <row r="24" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="159" t="s">
+    <row r="32" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="160"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="81"/>
-      <c r="W24" s="85"/>
-      <c r="X24" s="82"/>
-      <c r="Y24" s="82"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="53"/>
-      <c r="AC24" s="159" t="str">
+      <c r="B32" s="154"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="106"/>
+      <c r="V32" s="81"/>
+      <c r="W32" s="85"/>
+      <c r="X32" s="82"/>
+      <c r="Y32" s="82"/>
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="53"/>
+      <c r="AC32" s="153" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">   • Bau</v>
       </c>
-      <c r="AD24" s="160"/>
-      <c r="AE24" s="161"/>
-      <c r="AF24" s="57"/>
-      <c r="AG24" s="52"/>
-      <c r="AH24" s="51"/>
-      <c r="AI24" s="52"/>
-      <c r="AJ24" s="51"/>
-      <c r="AK24" s="52"/>
-      <c r="AL24" s="51"/>
-      <c r="AM24" s="52"/>
-      <c r="AN24" s="64"/>
-      <c r="AO24" s="52"/>
-      <c r="AP24" s="51"/>
-      <c r="AQ24" s="52"/>
-      <c r="AR24" s="51"/>
-      <c r="AS24" s="66"/>
-      <c r="AT24" s="93"/>
-      <c r="AU24" s="93"/>
-      <c r="AV24" s="92"/>
-      <c r="AW24" s="81"/>
-      <c r="AX24" s="194"/>
-      <c r="AY24" s="195"/>
-      <c r="AZ24" s="51"/>
-      <c r="BA24" s="52"/>
-      <c r="BB24" s="58"/>
-      <c r="BD24" s="38"/>
+      <c r="AD32" s="154"/>
+      <c r="AE32" s="155"/>
+      <c r="AF32" s="57"/>
+      <c r="AG32" s="52"/>
+      <c r="AH32" s="51"/>
+      <c r="AI32" s="52"/>
+      <c r="AJ32" s="51"/>
+      <c r="AK32" s="52"/>
+      <c r="AL32" s="51"/>
+      <c r="AM32" s="52"/>
+      <c r="AN32" s="64"/>
+      <c r="AO32" s="52"/>
+      <c r="AP32" s="51"/>
+      <c r="AQ32" s="52"/>
+      <c r="AR32" s="51"/>
+      <c r="AS32" s="66"/>
+      <c r="AT32" s="93"/>
+      <c r="AU32" s="93"/>
+      <c r="AV32" s="92"/>
+      <c r="AW32" s="81"/>
+      <c r="AX32" s="115"/>
+      <c r="AY32" s="116"/>
+      <c r="AZ32" s="51"/>
+      <c r="BA32" s="52"/>
+      <c r="BB32" s="58"/>
+      <c r="BD32" s="38"/>
     </row>
-    <row r="25" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="136" t="s">
+    <row r="33" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="137"/>
-      <c r="C25" s="138"/>
-      <c r="D25" s="44">
+      <c r="B33" s="145"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="44">
         <v>38</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E33" s="45">
         <v>39</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F33" s="46">
         <v>40</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G33" s="45">
         <v>41</v>
       </c>
-      <c r="H25" s="46">
+      <c r="H33" s="46">
         <v>42</v>
       </c>
-      <c r="I25" s="45">
+      <c r="I33" s="45">
         <v>43</v>
       </c>
-      <c r="J25" s="47">
+      <c r="J33" s="47">
         <v>44</v>
       </c>
-      <c r="K25" s="48">
+      <c r="K33" s="48">
         <v>45</v>
       </c>
-      <c r="L25" s="46">
+      <c r="L33" s="46">
         <v>46</v>
       </c>
-      <c r="M25" s="65">
+      <c r="M33" s="65">
         <v>47</v>
       </c>
-      <c r="N25" s="46">
+      <c r="N33" s="46">
         <v>48</v>
       </c>
-      <c r="O25" s="45">
+      <c r="O33" s="45">
         <v>49</v>
       </c>
-      <c r="P25" s="46">
+      <c r="P33" s="46">
         <v>50</v>
       </c>
-      <c r="Q25" s="45">
+      <c r="Q33" s="45">
         <v>51</v>
       </c>
-      <c r="R25" s="46">
+      <c r="R33" s="46">
         <v>52</v>
       </c>
-      <c r="S25" s="45">
+      <c r="S33" s="45">
         <v>1</v>
       </c>
-      <c r="T25" s="46">
+      <c r="T33" s="46">
         <v>2</v>
       </c>
-      <c r="U25" s="107">
+      <c r="U33" s="107">
         <v>3</v>
       </c>
-      <c r="V25" s="83">
+      <c r="V33" s="83">
         <v>4</v>
       </c>
-      <c r="W25" s="86">
+      <c r="W33" s="86">
         <v>5</v>
       </c>
-      <c r="X25" s="84">
+      <c r="X33" s="84">
         <v>6</v>
       </c>
-      <c r="Y25" s="84">
+      <c r="Y33" s="84">
         <v>7</v>
       </c>
-      <c r="Z25" s="46">
+      <c r="Z33" s="46">
         <v>8</v>
       </c>
-      <c r="AA25" s="45">
+      <c r="AA33" s="45">
         <v>9</v>
       </c>
-      <c r="AB25" s="47">
+      <c r="AB33" s="47">
         <v>10</v>
       </c>
-      <c r="AC25" s="136" t="s">
+      <c r="AC33" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="AD25" s="137"/>
-      <c r="AE25" s="138"/>
-      <c r="AF25" s="55">
+      <c r="AD33" s="145"/>
+      <c r="AE33" s="146"/>
+      <c r="AF33" s="55">
         <v>11</v>
       </c>
-      <c r="AG25" s="46">
+      <c r="AG33" s="46">
         <v>12</v>
       </c>
-      <c r="AH25" s="45">
+      <c r="AH33" s="45">
         <v>13</v>
       </c>
-      <c r="AI25" s="46">
+      <c r="AI33" s="46">
         <v>14</v>
       </c>
-      <c r="AJ25" s="45">
+      <c r="AJ33" s="45">
         <v>15</v>
       </c>
-      <c r="AK25" s="46">
+      <c r="AK33" s="46">
         <v>16</v>
       </c>
-      <c r="AL25" s="45">
+      <c r="AL33" s="45">
         <v>17</v>
       </c>
-      <c r="AM25" s="46">
+      <c r="AM33" s="46">
         <v>18</v>
       </c>
-      <c r="AN25" s="65">
+      <c r="AN33" s="65">
         <v>19</v>
       </c>
-      <c r="AO25" s="46">
+      <c r="AO33" s="46">
         <v>20</v>
       </c>
-      <c r="AP25" s="45">
+      <c r="AP33" s="45">
         <v>21</v>
       </c>
-      <c r="AQ25" s="46">
+      <c r="AQ33" s="46">
         <v>22</v>
       </c>
-      <c r="AR25" s="45">
+      <c r="AR33" s="45">
         <v>23</v>
       </c>
-      <c r="AS25" s="101">
+      <c r="AS33" s="101">
         <v>24</v>
       </c>
-      <c r="AT25" s="94">
+      <c r="AT33" s="94">
         <v>25</v>
       </c>
-      <c r="AU25" s="46">
+      <c r="AU33" s="46">
         <v>26</v>
       </c>
-      <c r="AV25" s="56">
+      <c r="AV33" s="56">
         <v>27</v>
       </c>
-      <c r="AW25" s="49">
+      <c r="AW33" s="49">
         <v>28</v>
       </c>
-      <c r="AX25" s="45">
+      <c r="AX33" s="45">
         <v>29</v>
       </c>
-      <c r="AY25" s="46">
+      <c r="AY33" s="46">
         <v>30</v>
       </c>
-      <c r="AZ25" s="45">
+      <c r="AZ33" s="45">
         <v>31</v>
       </c>
-      <c r="BA25" s="46">
+      <c r="BA33" s="46">
         <v>32</v>
       </c>
-      <c r="BB25" s="56">
+      <c r="BB33" s="56">
         <v>33</v>
       </c>
+    </row>
+    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="K41" s="224"/>
+      <c r="L41" s="225"/>
+      <c r="M41" s="225"/>
+      <c r="N41" s="225"/>
+      <c r="O41" s="224"/>
+      <c r="P41" s="225"/>
+    </row>
+    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="K42" s="225"/>
+      <c r="L42" s="225"/>
+      <c r="M42" s="225"/>
+      <c r="N42" s="225"/>
+      <c r="O42" s="225"/>
+      <c r="P42" s="225"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="AX24:AY24"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="AF19:AJ19"/>
-    <mergeCell ref="AO23:AR23"/>
+  <mergeCells count="66">
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="J21:S21"/>
+    <mergeCell ref="J19:R19"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AC13:AE13"/>
+    <mergeCell ref="AC14:AE14"/>
+    <mergeCell ref="AC15:AE15"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="AF9:BB9"/>
+    <mergeCell ref="AZ11:BB11"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="I9:AB9"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="D5:U5"/>
+    <mergeCell ref="V5:AB5"/>
+    <mergeCell ref="AF5:BB5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="K6:AB6"/>
+    <mergeCell ref="AF6:AV6"/>
+    <mergeCell ref="AW6:BB6"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
@@ -4009,52 +4703,16 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="AC9:AE9"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="D5:U5"/>
-    <mergeCell ref="V5:AB5"/>
-    <mergeCell ref="AF5:BB5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="K6:AB6"/>
-    <mergeCell ref="AF6:AV6"/>
-    <mergeCell ref="AW6:BB6"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="AC19:AE19"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="AF9:BB9"/>
-    <mergeCell ref="AZ11:BB11"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AC13:AE13"/>
-    <mergeCell ref="AC14:AE14"/>
-    <mergeCell ref="AC15:AE15"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="I9:AB9"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="AX32:AY32"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="AF27:AJ27"/>
+    <mergeCell ref="AO31:AR31"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N29:S29"/>
+    <mergeCell ref="AG23:AI23"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="3.1496062992125986" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="8" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
